--- a/out/ExcellFiles/Cartesian5.xlsx
+++ b/out/ExcellFiles/Cartesian5.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +429,7 @@
         <v>59043</v>
       </c>
       <c r="C2">
-        <v>6628</v>
+        <v>39951.99999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -441,10 +441,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>7.754925639435714</v>
+        <v>3.228608147226638</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.6862618467543148</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -455,22 +455,22 @@
         <v>59044</v>
       </c>
       <c r="C3">
-        <v>4244.389445975987</v>
+        <v>36638.39363011227</v>
       </c>
       <c r="D3">
-        <v>5085.671364864306</v>
+        <v>-16694.72200155364</v>
       </c>
       <c r="E3">
-        <v>-0.005335368319928035</v>
+        <v>-3548.909837159846</v>
       </c>
       <c r="F3">
-        <v>-5.961611173324507</v>
+        <v>1.28059761221933</v>
       </c>
       <c r="G3">
-        <v>4.965634791981054</v>
+        <v>2.938821979960108</v>
       </c>
       <c r="H3">
-        <v>1.178727820194661e-05</v>
+        <v>0.6250279874242313</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -481,22 +481,22 @@
         <v>59045</v>
       </c>
       <c r="C4">
-        <v>-1387.338635504283</v>
+        <v>27144.0425380654</v>
       </c>
       <c r="D4">
-        <v>6469.297265890732</v>
+        <v>-30478.93312351014</v>
       </c>
       <c r="E4">
-        <v>0.01422203450706428</v>
+        <v>-6482.458944143009</v>
       </c>
       <c r="F4">
-        <v>-7.592072893396772</v>
+        <v>2.287080978875743</v>
       </c>
       <c r="G4">
-        <v>-1.639547113384575</v>
+        <v>2.188325266084851</v>
       </c>
       <c r="H4">
-        <v>2.660667583659313e-05</v>
+        <v>0.4657903579361351</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -507,22 +507,22 @@
         <v>59046</v>
       </c>
       <c r="C5">
-        <v>-6034.571887309004</v>
+        <v>13372.1639164032</v>
       </c>
       <c r="D5">
-        <v>2692.718459110964</v>
+        <v>-39422.76299301149</v>
       </c>
       <c r="E5">
-        <v>0.04609095732108571</v>
+        <v>-8389.472088448183</v>
       </c>
       <c r="F5">
-        <v>-3.160829679583009</v>
+        <v>2.880570981721012</v>
       </c>
       <c r="G5">
-        <v>-7.104560272773155</v>
+        <v>1.16603056163845</v>
       </c>
       <c r="H5">
-        <v>-5.147998241004025e-07</v>
+        <v>0.2485827259807213</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -533,22 +533,22 @@
         <v>59047</v>
       </c>
       <c r="C6">
-        <v>-5615.164317385867</v>
+        <v>-2384.881395921303</v>
       </c>
       <c r="D6">
-        <v>-3474.946162971298</v>
+        <v>-42625.53551096334</v>
       </c>
       <c r="E6">
-        <v>0.03577459145532015</v>
+        <v>-9076.699130239182</v>
       </c>
       <c r="F6">
-        <v>4.094948075993143</v>
+        <v>3.03423396832818</v>
       </c>
       <c r="G6">
-        <v>-6.615795427079121</v>
+        <v>0.06319149850897342</v>
       </c>
       <c r="H6">
-        <v>-6.943719589507439e-05</v>
+        <v>0.01401130343040382</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -559,22 +559,22 @@
         <v>59048</v>
       </c>
       <c r="C7">
-        <v>-57.33267065574687</v>
+        <v>-17907.62513657761</v>
       </c>
       <c r="D7">
-        <v>-6604.559568740063</v>
+        <v>-40075.49030788107</v>
       </c>
       <c r="E7">
-        <v>-0.0429330193969558</v>
+        <v>-8539.62117695795</v>
       </c>
       <c r="F7">
-        <v>7.777782227924219</v>
+        <v>2.791108219850545</v>
       </c>
       <c r="G7">
-        <v>-0.07505790670313424</v>
+        <v>-0.9688917452589327</v>
       </c>
       <c r="H7">
-        <v>-9.883607465049798e-05</v>
+        <v>-0.2057302573360637</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -585,22 +585,22 @@
         <v>59049</v>
       </c>
       <c r="C8">
-        <v>5678.262528209797</v>
+        <v>-31284.65110672257</v>
       </c>
       <c r="D8">
-        <v>-3384.733001710255</v>
+        <v>-32420.27280599833</v>
       </c>
       <c r="E8">
-        <v>-0.1192901229902767</v>
+        <v>-6914.360276774623</v>
       </c>
       <c r="F8">
-        <v>3.987442727686746</v>
+        <v>2.225937230331543</v>
       </c>
       <c r="G8">
-        <v>6.669356532864611</v>
+        <v>-1.823588363987534</v>
       </c>
       <c r="H8">
-        <v>-9.312427129242172e-06</v>
+        <v>-0.3878844692141334</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -611,22 +611,22 @@
         <v>59050</v>
       </c>
       <c r="C9">
-        <v>5676.462497406239</v>
+        <v>-41008.02509654973</v>
       </c>
       <c r="D9">
-        <v>3397.108002928008</v>
+        <v>-20774.24102510608</v>
       </c>
       <c r="E9">
-        <v>-0.07775508351283253</v>
+        <v>-4437.240965866853</v>
       </c>
       <c r="F9">
-        <v>-3.982454829152007</v>
+        <v>1.425061338503661</v>
       </c>
       <c r="G9">
-        <v>6.664612793821203</v>
+        <v>-2.429179300749811</v>
       </c>
       <c r="H9">
-        <v>0.0001407183369837671</v>
+        <v>-0.5170928166218954</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -637,22 +637,22 @@
         <v>59051</v>
       </c>
       <c r="C10">
-        <v>-547.0860844188305</v>
+        <v>-46019.27291506372</v>
       </c>
       <c r="D10">
-        <v>6591.233355741758</v>
+        <v>-6580.803158072833</v>
       </c>
       <c r="E10">
-        <v>0.08077662981384123</v>
+        <v>-1415.622075697342</v>
       </c>
       <c r="F10">
-        <v>-7.737631068379644</v>
+        <v>0.4799785199033999</v>
       </c>
       <c r="G10">
-        <v>-0.6463550219160619</v>
+        <v>-2.73942168803665</v>
       </c>
       <c r="H10">
-        <v>0.0001656790286590652</v>
+        <v>-0.583431907585677</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -663,22 +663,22 @@
         <v>59052</v>
       </c>
       <c r="C11">
-        <v>-6244.24325013407</v>
+        <v>-45752.40096995062</v>
       </c>
       <c r="D11">
-        <v>2154.804553625282</v>
+        <v>8497.236679576845</v>
       </c>
       <c r="E11">
-        <v>0.1757590953835032</v>
+        <v>1795.847121981095</v>
       </c>
       <c r="F11">
-        <v>-2.526618981867096</v>
+        <v>-0.5128887058227426</v>
       </c>
       <c r="G11">
-        <v>-7.351169207460724</v>
+        <v>-2.729346522333051</v>
       </c>
       <c r="H11">
-        <v>-1.909826472431858e-05</v>
+        <v>-0.581547781194604</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -689,22 +689,22 @@
         <v>59053</v>
       </c>
       <c r="C12">
-        <v>-4262.690014970047</v>
+        <v>-40183.07213326724</v>
       </c>
       <c r="D12">
-        <v>-5033.871926175125</v>
+        <v>22692.09908549549</v>
       </c>
       <c r="E12">
-        <v>0.05019936089585685</v>
+        <v>4820.25372914405</v>
       </c>
       <c r="F12">
-        <v>5.943428332711199</v>
+        <v>-1.451751963363987</v>
       </c>
       <c r="G12">
-        <v>-5.02525544035233</v>
+        <v>-2.396492329418547</v>
       </c>
       <c r="H12">
-        <v>-0.0002094574608609013</v>
+        <v>-0.5109130287770819</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -715,22 +715,22 @@
         <v>59054</v>
       </c>
       <c r="C13">
-        <v>3412.11561785886</v>
+        <v>-29869.3312233939</v>
       </c>
       <c r="D13">
-        <v>-5641.916755432529</v>
+        <v>34275.04314584159</v>
       </c>
       <c r="E13">
-        <v>-0.1578369978144683</v>
+        <v>7289.509004770189</v>
       </c>
       <c r="F13">
-        <v>6.663710698350196</v>
+        <v>-2.232087700950787</v>
       </c>
       <c r="G13">
-        <v>4.025696345069382</v>
+        <v>-1.765932877504164</v>
       </c>
       <c r="H13">
-        <v>-0.0001196539364915828</v>
+        <v>-0.3768677751226143</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -741,22 +741,22 @@
         <v>59055</v>
       </c>
       <c r="C14">
-        <v>6367.078876385019</v>
+        <v>-15954.7994904192</v>
       </c>
       <c r="D14">
-        <v>1731.807256249336</v>
+        <v>41739.55593500642</v>
       </c>
       <c r="E14">
-        <v>-0.1328463979285316</v>
+        <v>8883.267409254287</v>
       </c>
       <c r="F14">
-        <v>-2.032867229269494</v>
+        <v>-2.754519303712265</v>
       </c>
       <c r="G14">
-        <v>7.507852309635865</v>
+        <v>-0.8959611963783545</v>
       </c>
       <c r="H14">
-        <v>0.0001570202717306406</v>
+        <v>-0.1918054371585343</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -767,22 +767,22 @@
         <v>59056</v>
       </c>
       <c r="C15">
-        <v>-225.7850187495816</v>
+        <v>-101.4926908387861</v>
       </c>
       <c r="D15">
-        <v>6599.21247682942</v>
+        <v>44009.68152215658</v>
       </c>
       <c r="E15">
-        <v>0.115647379280954</v>
+        <v>9372.749747999469</v>
       </c>
       <c r="F15">
-        <v>-7.767035221799954</v>
+        <v>-2.938053169631766</v>
       </c>
       <c r="G15">
-        <v>-0.2624267640421358</v>
+        <v>0.1196253303470653</v>
       </c>
       <c r="H15">
-        <v>0.0001774233049399573</v>
+        <v>0.02435753611162505</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -793,22 +793,22 @@
         <v>59057</v>
       </c>
       <c r="C16">
-        <v>-6529.050245532602</v>
+        <v>15671.4604670277</v>
       </c>
       <c r="D16">
-        <v>955.8951212373834</v>
+        <v>40635.77569594583</v>
       </c>
       <c r="E16">
-        <v>0.1616543832861604</v>
+        <v>8661.722668101726</v>
       </c>
       <c r="F16">
-        <v>-1.120085871834005</v>
+        <v>-2.736525802136433</v>
       </c>
       <c r="G16">
-        <v>-7.694139237169236</v>
+        <v>1.156207907410865</v>
       </c>
       <c r="H16">
-        <v>-0.0001298742208060126</v>
+        <v>0.2451726791958773</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -819,22 +819,22 @@
         <v>59058</v>
       </c>
       <c r="C17">
-        <v>-1733.874277368813</v>
+        <v>29243.30395113604</v>
       </c>
       <c r="D17">
-        <v>-6355.447670441095</v>
+        <v>31925.32845042845</v>
       </c>
       <c r="E17">
-        <v>-0.1165965010716613</v>
+        <v>6814.082737913914</v>
       </c>
       <c r="F17">
-        <v>7.513964461619103</v>
+        <v>-2.153685432179502</v>
       </c>
       <c r="G17">
-        <v>-2.042836160790891</v>
+        <v>2.072065284355245</v>
       </c>
       <c r="H17">
-        <v>-0.0002021686215622373</v>
+        <v>0.440530767377952</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -845,22 +845,22 @@
         <v>59059</v>
       </c>
       <c r="C18">
-        <v>6239.083461609831</v>
+        <v>38705.0514647832</v>
       </c>
       <c r="D18">
-        <v>-2098.384776183195</v>
+        <v>18959.04990744202</v>
       </c>
       <c r="E18">
-        <v>-0.1779893522992703</v>
+        <v>4057.827079953415</v>
       </c>
       <c r="F18">
-        <v>2.486234996433575</v>
+        <v>-1.250906297002904</v>
       </c>
       <c r="G18">
-        <v>7.383935910536684</v>
+        <v>2.72993872273546</v>
       </c>
       <c r="H18">
-        <v>0.0001580650815374025</v>
+        <v>0.5811948449329143</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -871,22 +871,22 @@
         <v>59060</v>
       </c>
       <c r="C19">
-        <v>2066.046908559485</v>
+        <v>42664.72665549401</v>
       </c>
       <c r="D19">
-        <v>6254.736244667954</v>
+        <v>3471.293067063157</v>
       </c>
       <c r="E19">
-        <v>0.1592125635548103</v>
+        <v>760.6074853422172</v>
       </c>
       <c r="F19">
-        <v>-7.389003235462654</v>
+        <v>-0.1434893089288752</v>
       </c>
       <c r="G19">
-        <v>2.448469613041556</v>
+        <v>3.021265910675747</v>
       </c>
       <c r="H19">
-        <v>0.0002118171632932009</v>
+        <v>0.6439461219571357</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -897,22 +897,22 @@
         <v>59061</v>
       </c>
       <c r="C20">
-        <v>-6389.010354774115</v>
+        <v>40479.27701560067</v>
       </c>
       <c r="D20">
-        <v>1610.111101382647</v>
+        <v>-12384.20827256849</v>
       </c>
       <c r="E20">
-        <v>0.1661431701201231</v>
+        <v>-2619.413600890739</v>
       </c>
       <c r="F20">
-        <v>-1.900384338889366</v>
+        <v>1.013953677965524</v>
       </c>
       <c r="G20">
-        <v>-7.544649696750088</v>
+        <v>2.886828540944408</v>
       </c>
       <c r="H20">
-        <v>-0.0002259984216375884</v>
+        <v>0.6160230582923228</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -923,22 +923,22 @@
         <v>59062</v>
       </c>
       <c r="C21">
-        <v>-641.3368081614639</v>
+        <v>32376.30959973604</v>
       </c>
       <c r="D21">
-        <v>-6547.272280668232</v>
+        <v>-26337.5421893343</v>
       </c>
       <c r="E21">
-        <v>-0.2263718654236563</v>
+        <v>-5598.118598437652</v>
       </c>
       <c r="F21">
-        <v>7.753892522836249</v>
+        <v>2.04951486223288</v>
       </c>
       <c r="G21">
-        <v>-0.7526501010235768</v>
+        <v>2.330106206225594</v>
       </c>
       <c r="H21">
-        <v>-0.0001543354205582841</v>
+        <v>0.4980296811817738</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -949,22 +949,22 @@
         <v>59063</v>
       </c>
       <c r="C22">
-        <v>6505.879241317355</v>
+        <v>19455.40283129689</v>
       </c>
       <c r="D22">
-        <v>916.0724252436216</v>
+        <v>-36331.71165909521</v>
       </c>
       <c r="E22">
-        <v>-0.06386971976284726</v>
+        <v>-7736.100931951276</v>
       </c>
       <c r="F22">
-        <v>-1.086118834350521</v>
+        <v>2.800468100300066</v>
       </c>
       <c r="G22">
-        <v>7.72214012190917</v>
+        <v>1.422092521987626</v>
       </c>
       <c r="H22">
-        <v>0.0003017533693768066</v>
+        <v>0.3049939231797993</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -975,22 +975,22 @@
         <v>59064</v>
       </c>
       <c r="C23">
-        <v>-2987.767413817639</v>
+        <v>3564.10289269524</v>
       </c>
       <c r="D23">
-        <v>5854.625974338116</v>
+        <v>-40843.04666902115</v>
       </c>
       <c r="E23">
-        <v>0.2541152183385895</v>
+        <v>-8707.511994892542</v>
       </c>
       <c r="F23">
-        <v>-6.943213414444865</v>
+        <v>3.142222873511923</v>
       </c>
       <c r="G23">
-        <v>-3.53706146362993</v>
+        <v>0.2959663320554595</v>
       </c>
       <c r="H23">
-        <v>-3.91354165765914e-05</v>
+        <v>0.06524433981228089</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1001,22 +1001,22 @@
         <v>59065</v>
       </c>
       <c r="C24">
-        <v>-4028.729423256562</v>
+        <v>-12956.58601132662</v>
       </c>
       <c r="D24">
-        <v>-5189.415086479629</v>
+        <v>-39150.70282346151</v>
       </c>
       <c r="E24">
-        <v>-0.1430477234551427</v>
+        <v>-8357.783557737546</v>
       </c>
       <c r="F24">
-        <v>6.157821892464018</v>
+        <v>3.01570682829007</v>
       </c>
       <c r="G24">
-        <v>-4.776224538171338</v>
+        <v>-0.871707875710706</v>
       </c>
       <c r="H24">
-        <v>-0.0002352770644908727</v>
+        <v>-0.1836233228487918</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1027,22 +1027,22 @@
         <v>59066</v>
       </c>
       <c r="C25">
-        <v>6530.964963543873</v>
+        <v>-27642.82385607769</v>
       </c>
       <c r="D25">
-        <v>-574.1386323160891</v>
+        <v>-31492.74998681617</v>
       </c>
       <c r="E25">
-        <v>-0.06720120602104421</v>
+        <v>-6736.774045873684</v>
       </c>
       <c r="F25">
-        <v>0.6810549932233834</v>
+        <v>2.444385544753989</v>
       </c>
       <c r="G25">
-        <v>7.775691011932439</v>
+        <v>-1.893578875582366</v>
       </c>
       <c r="H25">
-        <v>0.0002609970384367492</v>
+        <v>-0.4016972134618002</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1053,22 +1053,22 @@
         <v>59067</v>
       </c>
       <c r="C26">
-        <v>-3967.151426771611</v>
+        <v>-38335.23686543007</v>
       </c>
       <c r="D26">
-        <v>5214.540485880633</v>
+        <v>-19046.22068040537</v>
       </c>
       <c r="E26">
-        <v>0.18291340682282</v>
+        <v>-4094.214562519935</v>
       </c>
       <c r="F26">
-        <v>-6.214631054310028</v>
+        <v>1.531864477248252</v>
       </c>
       <c r="G26">
-        <v>-4.722884817786283</v>
+        <v>-2.611399436203523</v>
       </c>
       <c r="H26">
-        <v>-0.0001306922044324503</v>
+        <v>-0.5552548816720865</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1079,22 +1079,22 @@
         <v>59068</v>
       </c>
       <c r="C27">
-        <v>311.6314539594177</v>
+        <v>-43560.13384770181</v>
       </c>
       <c r="D27">
-        <v>-6533.633292210346</v>
+        <v>-3708.098690050111</v>
       </c>
       <c r="E27">
-        <v>-0.1986808402837371</v>
+        <v>-832.8703701016885</v>
       </c>
       <c r="F27">
-        <v>7.802337268679119</v>
+        <v>0.4371224743928743</v>
       </c>
       <c r="G27">
-        <v>0.3747948277903043</v>
+        <v>-2.929830885890329</v>
       </c>
       <c r="H27">
-        <v>1.436759973134511e-05</v>
+        <v>-0.6239518836549981</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1105,22 +1105,22 @@
         <v>59069</v>
       </c>
       <c r="C28">
-        <v>611.6208273530946</v>
+        <v>-42755.61431590285</v>
       </c>
       <c r="D28">
-        <v>6469.457453207604</v>
+        <v>12276.10108375946</v>
       </c>
       <c r="E28">
-        <v>0.18722333270282</v>
+        <v>2570.450448676922</v>
       </c>
       <c r="F28">
-        <v>-7.803426421739022</v>
+        <v>-0.6648026311228861</v>
       </c>
       <c r="G28">
-        <v>0.7350363482428494</v>
+        <v>-2.831075809114617</v>
       </c>
       <c r="H28">
-        <v>-1.304008177235981e-05</v>
+        <v>-0.6039201039375</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,8839 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>59069.00072133668</v>
+        <v>59070</v>
       </c>
       <c r="C29">
-        <v>124.0187218467888</v>
+        <v>-36282.91336576396</v>
       </c>
       <c r="D29">
-        <v>6496.95288384242</v>
+        <v>26725.85281336628</v>
       </c>
       <c r="E29">
-        <v>0.1858812799309426</v>
+        <v>5652.52698152831</v>
       </c>
       <c r="F29">
-        <v>-7.836662490917125</v>
+        <v>-1.621038018562579</v>
       </c>
       <c r="G29">
-        <v>0.1468875792383983</v>
+        <v>-2.36602059139067</v>
       </c>
       <c r="H29">
-        <v>-3.000691186966636e-05</v>
+        <v>-0.5058768456748158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>59071</v>
+      </c>
+      <c r="C30">
+        <v>-25249.03562090708</v>
+      </c>
+      <c r="D30">
+        <v>37860.49554658392</v>
+      </c>
+      <c r="E30">
+        <v>8034.522710041003</v>
+      </c>
+      <c r="F30">
+        <v>-2.324261911233497</v>
+      </c>
+      <c r="G30">
+        <v>-1.629451393978738</v>
+      </c>
+      <c r="H30">
+        <v>-0.3498650681275269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>59072</v>
+      </c>
+      <c r="C31">
+        <v>-11231.73736294997</v>
+      </c>
+      <c r="D31">
+        <v>44486.11700997616</v>
+      </c>
+      <c r="E31">
+        <v>9461.469219282648</v>
+      </c>
+      <c r="F31">
+        <v>-2.717449235613508</v>
+      </c>
+      <c r="G31">
+        <v>-0.7325976006785734</v>
+      </c>
+      <c r="H31">
+        <v>-0.1594375025614515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>59073</v>
+      </c>
+      <c r="C32">
+        <v>3994.651949260778</v>
+      </c>
+      <c r="D32">
+        <v>46037.08647526181</v>
+      </c>
+      <c r="E32">
+        <v>9811.135698405378</v>
+      </c>
+      <c r="F32">
+        <v>-2.785445998701506</v>
+      </c>
+      <c r="G32">
+        <v>0.2169338679126114</v>
+      </c>
+      <c r="H32">
+        <v>0.04258873945960919</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>59074</v>
+      </c>
+      <c r="C33">
+        <v>18671.55877250764</v>
+      </c>
+      <c r="D33">
+        <v>42521.88577634436</v>
+      </c>
+      <c r="E33">
+        <v>9082.812350879845</v>
+      </c>
+      <c r="F33">
+        <v>-2.541879556209245</v>
+      </c>
+      <c r="G33">
+        <v>1.124690671465192</v>
+      </c>
+      <c r="H33">
+        <v>0.2361491847722379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>59075</v>
+      </c>
+      <c r="C34">
+        <v>31192.29551250707</v>
+      </c>
+      <c r="D34">
+        <v>34431.80273490887</v>
+      </c>
+      <c r="E34">
+        <v>7378.326099102113</v>
+      </c>
+      <c r="F34">
+        <v>-2.017917917803251</v>
+      </c>
+      <c r="G34">
+        <v>1.910293645161548</v>
+      </c>
+      <c r="H34">
+        <v>0.4041296055658815</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>59076</v>
+      </c>
+      <c r="C35">
+        <v>40179.61844811021</v>
+      </c>
+      <c r="D35">
+        <v>22656.28978363939</v>
+      </c>
+      <c r="E35">
+        <v>4884.479879143783</v>
+      </c>
+      <c r="F35">
+        <v>-1.256169764279116</v>
+      </c>
+      <c r="G35">
+        <v>2.503355722907538</v>
+      </c>
+      <c r="H35">
+        <v>0.5315023192475598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>59077</v>
+      </c>
+      <c r="C36">
+        <v>44537.17553718719</v>
+      </c>
+      <c r="D36">
+        <v>8428.131016088339</v>
+      </c>
+      <c r="E36">
+        <v>1861.777087050936</v>
+      </c>
+      <c r="F36">
+        <v>-0.3110574640294972</v>
+      </c>
+      <c r="G36">
+        <v>2.83795782758378</v>
+      </c>
+      <c r="H36">
+        <v>0.604152768065347</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>59078</v>
+      </c>
+      <c r="C37">
+        <v>43514.02657616488</v>
+      </c>
+      <c r="D37">
+        <v>-6699.371883461462</v>
+      </c>
+      <c r="E37">
+        <v>-1360.208011090909</v>
+      </c>
+      <c r="F37">
+        <v>0.7436118205606498</v>
+      </c>
+      <c r="G37">
+        <v>2.849658206806924</v>
+      </c>
+      <c r="H37">
+        <v>0.6082497540768638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>59079</v>
+      </c>
+      <c r="C38">
+        <v>36824.21585277312</v>
+      </c>
+      <c r="D38">
+        <v>-20868.22562288745</v>
+      </c>
+      <c r="E38">
+        <v>-4386.284029228103</v>
+      </c>
+      <c r="F38">
+        <v>1.800564517527012</v>
+      </c>
+      <c r="G38">
+        <v>2.481037089983715</v>
+      </c>
+      <c r="H38">
+        <v>0.5314265055341756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>59080</v>
+      </c>
+      <c r="C39">
+        <v>24848.60731046227</v>
+      </c>
+      <c r="D39">
+        <v>-31990.13265113933</v>
+      </c>
+      <c r="E39">
+        <v>-6771.625471363098</v>
+      </c>
+      <c r="F39">
+        <v>2.704812448715542</v>
+      </c>
+      <c r="G39">
+        <v>1.704371414801841</v>
+      </c>
+      <c r="H39">
+        <v>0.3675773364786704</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>59081</v>
+      </c>
+      <c r="C40">
+        <v>8890.644637089556</v>
+      </c>
+      <c r="D40">
+        <v>-37994.07601565264</v>
+      </c>
+      <c r="E40">
+        <v>-8074.845307485401</v>
+      </c>
+      <c r="F40">
+        <v>3.257422791547519</v>
+      </c>
+      <c r="G40">
+        <v>0.56730231718956</v>
+      </c>
+      <c r="H40">
+        <v>0.1266202950603572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>59082</v>
+      </c>
+      <c r="C41">
+        <v>-8692.557846420179</v>
+      </c>
+      <c r="D41">
+        <v>-37341.01168384955</v>
+      </c>
+      <c r="E41">
+        <v>-7966.412321086176</v>
+      </c>
+      <c r="F41">
+        <v>3.270853598628256</v>
+      </c>
+      <c r="G41">
+        <v>-0.7579021779532332</v>
+      </c>
+      <c r="H41">
+        <v>-0.1551733499178868</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>59083</v>
+      </c>
+      <c r="C42">
+        <v>-24783.66319880845</v>
+      </c>
+      <c r="D42">
+        <v>-29714.33944841471</v>
+      </c>
+      <c r="E42">
+        <v>-6374.668104301837</v>
+      </c>
+      <c r="F42">
+        <v>2.677556677562062</v>
+      </c>
+      <c r="G42">
+        <v>-1.980252133950747</v>
+      </c>
+      <c r="H42">
+        <v>-0.4161654520694087</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>59084</v>
+      </c>
+      <c r="C43">
+        <v>-36377.94622837139</v>
+      </c>
+      <c r="D43">
+        <v>-16431.50981443991</v>
+      </c>
+      <c r="E43">
+        <v>-3573.879743340108</v>
+      </c>
+      <c r="F43">
+        <v>1.612890486802204</v>
+      </c>
+      <c r="G43">
+        <v>-2.805273736542141</v>
+      </c>
+      <c r="H43">
+        <v>-0.5936457625436558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>59085</v>
+      </c>
+      <c r="C44">
+        <v>-41611.88766072963</v>
+      </c>
+      <c r="D44">
+        <v>-89.52887091049047</v>
+      </c>
+      <c r="E44">
+        <v>-111.0371298560975</v>
+      </c>
+      <c r="F44">
+        <v>0.3602918106863846</v>
+      </c>
+      <c r="G44">
+        <v>-3.086425150410006</v>
+      </c>
+      <c r="H44">
+        <v>-0.6559996799652948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>59086</v>
+      </c>
+      <c r="C45">
+        <v>-40208.21716911096</v>
+      </c>
+      <c r="D45">
+        <v>16396.37297777147</v>
+      </c>
+      <c r="E45">
+        <v>3396.458345178889</v>
+      </c>
+      <c r="F45">
+        <v>-0.803266692069847</v>
+      </c>
+      <c r="G45">
+        <v>-2.865344205851943</v>
+      </c>
+      <c r="H45">
+        <v>-0.6115192012416413</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>59087</v>
+      </c>
+      <c r="C46">
+        <v>-33148.58814943763</v>
+      </c>
+      <c r="D46">
+        <v>30649.52525755285</v>
+      </c>
+      <c r="E46">
+        <v>6442.490563378961</v>
+      </c>
+      <c r="F46">
+        <v>-1.710670943054454</v>
+      </c>
+      <c r="G46">
+        <v>-2.288959845941437</v>
+      </c>
+      <c r="H46">
+        <v>-0.4910301163484992</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>59088</v>
+      </c>
+      <c r="C47">
+        <v>-22035.63204248485</v>
+      </c>
+      <c r="D47">
+        <v>41160.94045321623</v>
+      </c>
+      <c r="E47">
+        <v>8703.144855631881</v>
+      </c>
+      <c r="F47">
+        <v>-2.305199049605945</v>
+      </c>
+      <c r="G47">
+        <v>-1.51377411765549</v>
+      </c>
+      <c r="H47">
+        <v>-0.3276137283574135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>59089</v>
+      </c>
+      <c r="C48">
+        <v>-8589.834823605825</v>
+      </c>
+      <c r="D48">
+        <v>47207.87507747553</v>
+      </c>
+      <c r="E48">
+        <v>10020.78379220911</v>
+      </c>
+      <c r="F48">
+        <v>-2.594975054402356</v>
+      </c>
+      <c r="G48">
+        <v>-0.6608186990768579</v>
+      </c>
+      <c r="H48">
+        <v>-0.1469778405288782</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>59090</v>
+      </c>
+      <c r="C49">
+        <v>5603.607082368678</v>
+      </c>
+      <c r="D49">
+        <v>48632.90548059434</v>
+      </c>
+      <c r="E49">
+        <v>10358.15913264912</v>
+      </c>
+      <c r="F49">
+        <v>-2.612680012348196</v>
+      </c>
+      <c r="G49">
+        <v>0.1885958466352853</v>
+      </c>
+      <c r="H49">
+        <v>0.03353200651124406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>59091</v>
+      </c>
+      <c r="C50">
+        <v>19168.65549049815</v>
+      </c>
+      <c r="D50">
+        <v>45645.39613994947</v>
+      </c>
+      <c r="E50">
+        <v>9756.680761829486</v>
+      </c>
+      <c r="F50">
+        <v>-2.393310273688646</v>
+      </c>
+      <c r="G50">
+        <v>0.9814949260074631</v>
+      </c>
+      <c r="H50">
+        <v>0.2025809275939256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>59092</v>
+      </c>
+      <c r="C51">
+        <v>30924.14979151613</v>
+      </c>
+      <c r="D51">
+        <v>38693.79343501744</v>
+      </c>
+      <c r="E51">
+        <v>8309.199341375992</v>
+      </c>
+      <c r="F51">
+        <v>-1.965319778928345</v>
+      </c>
+      <c r="G51">
+        <v>1.679865866509376</v>
+      </c>
+      <c r="H51">
+        <v>0.3520420580472128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>59093</v>
+      </c>
+      <c r="C52">
+        <v>39840.12131244981</v>
+      </c>
+      <c r="D52">
+        <v>28407.5476427287</v>
+      </c>
+      <c r="E52">
+        <v>6147.268761682996</v>
+      </c>
+      <c r="F52">
+        <v>-1.34920281732361</v>
+      </c>
+      <c r="G52">
+        <v>2.248989170880651</v>
+      </c>
+      <c r="H52">
+        <v>0.4745302776108889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>59094</v>
+      </c>
+      <c r="C53">
+        <v>44996.77991100543</v>
+      </c>
+      <c r="D53">
+        <v>15598.87911302239</v>
+      </c>
+      <c r="E53">
+        <v>3441.065780529156</v>
+      </c>
+      <c r="F53">
+        <v>-0.5607815797896865</v>
+      </c>
+      <c r="G53">
+        <v>2.647021833479993</v>
+      </c>
+      <c r="H53">
+        <v>0.5611787827432831</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>59095</v>
+      </c>
+      <c r="C54">
+        <v>45571.16990717992</v>
+      </c>
+      <c r="D54">
+        <v>1320.605477540545</v>
+      </c>
+      <c r="E54">
+        <v>411.4012100300358</v>
+      </c>
+      <c r="F54">
+        <v>0.3798417820788094</v>
+      </c>
+      <c r="G54">
+        <v>2.814795433306629</v>
+      </c>
+      <c r="H54">
+        <v>0.5994364027381257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>59096</v>
+      </c>
+      <c r="C55">
+        <v>40891.49012063028</v>
+      </c>
+      <c r="D55">
+        <v>-13020.95243184777</v>
+      </c>
+      <c r="E55">
+        <v>-2646.160900762294</v>
+      </c>
+      <c r="F55">
+        <v>1.428788068878226</v>
+      </c>
+      <c r="G55">
+        <v>2.667299221819567</v>
+      </c>
+      <c r="H55">
+        <v>0.571173693516369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>59097</v>
+      </c>
+      <c r="C56">
+        <v>30636.99254786461</v>
+      </c>
+      <c r="D56">
+        <v>-25524.26824623064</v>
+      </c>
+      <c r="E56">
+        <v>-5330.340480247787</v>
+      </c>
+      <c r="F56">
+        <v>2.479325523031039</v>
+      </c>
+      <c r="G56">
+        <v>2.098125541397351</v>
+      </c>
+      <c r="H56">
+        <v>0.4535277683344842</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>59098</v>
+      </c>
+      <c r="C57">
+        <v>15301.27432359253</v>
+      </c>
+      <c r="D57">
+        <v>-33760.0629339922</v>
+      </c>
+      <c r="E57">
+        <v>-7125.624938276105</v>
+      </c>
+      <c r="F57">
+        <v>3.308158519770414</v>
+      </c>
+      <c r="G57">
+        <v>1.02981501939089</v>
+      </c>
+      <c r="H57">
+        <v>0.2293560018353591</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>59099</v>
+      </c>
+      <c r="C58">
+        <v>-3129.4756063832</v>
+      </c>
+      <c r="D58">
+        <v>-35215.53750444582</v>
+      </c>
+      <c r="E58">
+        <v>-7493.343652271958</v>
+      </c>
+      <c r="F58">
+        <v>3.575522815016994</v>
+      </c>
+      <c r="G58">
+        <v>-0.4467335757469982</v>
+      </c>
+      <c r="H58">
+        <v>-0.08323065301745704</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>59100</v>
+      </c>
+      <c r="C59">
+        <v>-20936.84261256619</v>
+      </c>
+      <c r="D59">
+        <v>-28593.0878545291</v>
+      </c>
+      <c r="E59">
+        <v>-6145.938989102121</v>
+      </c>
+      <c r="F59">
+        <v>3.030457200015317</v>
+      </c>
+      <c r="G59">
+        <v>-1.935787536790211</v>
+      </c>
+      <c r="H59">
+        <v>-0.4011645427739067</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>59101</v>
+      </c>
+      <c r="C60">
+        <v>-33986.73978749288</v>
+      </c>
+      <c r="D60">
+        <v>-15178.05338087696</v>
+      </c>
+      <c r="E60">
+        <v>-3341.606606894703</v>
+      </c>
+      <c r="F60">
+        <v>1.827233420463902</v>
+      </c>
+      <c r="G60">
+        <v>-2.922131457859624</v>
+      </c>
+      <c r="H60">
+        <v>-0.6146400542039328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>59102</v>
+      </c>
+      <c r="C61">
+        <v>-39934.66056599523</v>
+      </c>
+      <c r="D61">
+        <v>1619.610586041501</v>
+      </c>
+      <c r="E61">
+        <v>204.8269950825424</v>
+      </c>
+      <c r="F61">
+        <v>0.4394796018128086</v>
+      </c>
+      <c r="G61">
+        <v>-3.196043325384651</v>
+      </c>
+      <c r="H61">
+        <v>-0.6775453775897301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>59103</v>
+      </c>
+      <c r="C62">
+        <v>-38893.69447583179</v>
+      </c>
+      <c r="D62">
+        <v>18268.61830150305</v>
+      </c>
+      <c r="E62">
+        <v>3743.981287425336</v>
+      </c>
+      <c r="F62">
+        <v>-0.7513491183456464</v>
+      </c>
+      <c r="G62">
+        <v>-2.90735142147197</v>
+      </c>
+      <c r="H62">
+        <v>-0.6203546315756845</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>59104</v>
+      </c>
+      <c r="C63">
+        <v>-32388.5225710681</v>
+      </c>
+      <c r="D63">
+        <v>32406.98245850467</v>
+      </c>
+      <c r="E63">
+        <v>6769.182264048729</v>
+      </c>
+      <c r="F63">
+        <v>-1.60852875548096</v>
+      </c>
+      <c r="G63">
+        <v>-2.302316781954278</v>
+      </c>
+      <c r="H63">
+        <v>-0.4948538152707445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>59105</v>
+      </c>
+      <c r="C64">
+        <v>-22241.83422133117</v>
+      </c>
+      <c r="D64">
+        <v>42871.76654561778</v>
+      </c>
+      <c r="E64">
+        <v>9026.940273364746</v>
+      </c>
+      <c r="F64">
+        <v>-2.141961023442131</v>
+      </c>
+      <c r="G64">
+        <v>-1.563060422551208</v>
+      </c>
+      <c r="H64">
+        <v>-0.3397430830870727</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>59106</v>
+      </c>
+      <c r="C65">
+        <v>-10068.11309695998</v>
+      </c>
+      <c r="D65">
+        <v>49274.07703316508</v>
+      </c>
+      <c r="E65">
+        <v>10428.96179514978</v>
+      </c>
+      <c r="F65">
+        <v>-2.405250737937245</v>
+      </c>
+      <c r="G65">
+        <v>-0.7924168044454978</v>
+      </c>
+      <c r="H65">
+        <v>-0.1770542209295079</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>59107</v>
+      </c>
+      <c r="C66">
+        <v>2825.501241158655</v>
+      </c>
+      <c r="D66">
+        <v>51635.33673693421</v>
+      </c>
+      <c r="E66">
+        <v>10975.55590707611</v>
+      </c>
+      <c r="F66">
+        <v>-2.450103665136285</v>
+      </c>
+      <c r="G66">
+        <v>-0.04208605214413109</v>
+      </c>
+      <c r="H66">
+        <v>-0.017951647226699</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>59108</v>
+      </c>
+      <c r="C67">
+        <v>15387.46695640118</v>
+      </c>
+      <c r="D67">
+        <v>50176.28621121186</v>
+      </c>
+      <c r="E67">
+        <v>10710.64763605111</v>
+      </c>
+      <c r="F67">
+        <v>-2.313817240550672</v>
+      </c>
+      <c r="G67">
+        <v>0.6623926078781532</v>
+      </c>
+      <c r="H67">
+        <v>0.132016821553382</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>59109</v>
+      </c>
+      <c r="C68">
+        <v>26738.68832518397</v>
+      </c>
+      <c r="D68">
+        <v>45217.13024633176</v>
+      </c>
+      <c r="E68">
+        <v>9699.966689103752</v>
+      </c>
+      <c r="F68">
+        <v>-2.01837773737823</v>
+      </c>
+      <c r="G68">
+        <v>1.306115715429645</v>
+      </c>
+      <c r="H68">
+        <v>0.2696372403581364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>59110</v>
+      </c>
+      <c r="C69">
+        <v>36094.88950970977</v>
+      </c>
+      <c r="D69">
+        <v>37143.64312668988</v>
+      </c>
+      <c r="E69">
+        <v>8022.987934876377</v>
+      </c>
+      <c r="F69">
+        <v>-1.572245664622547</v>
+      </c>
+      <c r="G69">
+        <v>1.875147806187994</v>
+      </c>
+      <c r="H69">
+        <v>0.391978853985801</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>59111</v>
+      </c>
+      <c r="C70">
+        <v>42699.58866403164</v>
+      </c>
+      <c r="D70">
+        <v>26416.47325021668</v>
+      </c>
+      <c r="E70">
+        <v>5774.172544932852</v>
+      </c>
+      <c r="F70">
+        <v>-0.9722712838365903</v>
+      </c>
+      <c r="G70">
+        <v>2.348532080207065</v>
+      </c>
+      <c r="H70">
+        <v>0.4946789304081586</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>59112</v>
+      </c>
+      <c r="C71">
+        <v>45765.78760327891</v>
+      </c>
+      <c r="D71">
+        <v>13625.07964960768</v>
+      </c>
+      <c r="E71">
+        <v>3074.260453338906</v>
+      </c>
+      <c r="F71">
+        <v>-0.2064546052427571</v>
+      </c>
+      <c r="G71">
+        <v>2.688085632020616</v>
+      </c>
+      <c r="H71">
+        <v>0.5697375986423926</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>59113</v>
+      </c>
+      <c r="C72">
+        <v>44438.16790198364</v>
+      </c>
+      <c r="D72">
+        <v>-388.778745629912</v>
+      </c>
+      <c r="E72">
+        <v>96.9628917649647</v>
+      </c>
+      <c r="F72">
+        <v>0.7377595225479529</v>
+      </c>
+      <c r="G72">
+        <v>2.822011938703455</v>
+      </c>
+      <c r="H72">
+        <v>0.6019813510420815</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>59114</v>
+      </c>
+      <c r="C73">
+        <v>37835.73089954926</v>
+      </c>
+      <c r="D73">
+        <v>-14296.11417860902</v>
+      </c>
+      <c r="E73">
+        <v>-2880.265292262622</v>
+      </c>
+      <c r="F73">
+        <v>1.844343861804675</v>
+      </c>
+      <c r="G73">
+        <v>2.621153054157782</v>
+      </c>
+      <c r="H73">
+        <v>0.5639074633632279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>59115</v>
+      </c>
+      <c r="C74">
+        <v>25364.98414422133</v>
+      </c>
+      <c r="D74">
+        <v>-25927.85123199463</v>
+      </c>
+      <c r="E74">
+        <v>-5399.71334362656</v>
+      </c>
+      <c r="F74">
+        <v>2.987580665785159</v>
+      </c>
+      <c r="G74">
+        <v>1.889222333600293</v>
+      </c>
+      <c r="H74">
+        <v>0.4132852595770138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>59116</v>
+      </c>
+      <c r="C75">
+        <v>7638.567036449606</v>
+      </c>
+      <c r="D75">
+        <v>-32094.80564329157</v>
+      </c>
+      <c r="E75">
+        <v>-6781.464321422615</v>
+      </c>
+      <c r="F75">
+        <v>3.7883876114524</v>
+      </c>
+      <c r="G75">
+        <v>0.4753546453835489</v>
+      </c>
+      <c r="H75">
+        <v>0.11647723176325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>59117</v>
+      </c>
+      <c r="C76">
+        <v>-12106.29764256979</v>
+      </c>
+      <c r="D76">
+        <v>-29674.79085788612</v>
+      </c>
+      <c r="E76">
+        <v>-6348.82477066049</v>
+      </c>
+      <c r="F76">
+        <v>3.665396497311292</v>
+      </c>
+      <c r="G76">
+        <v>-1.345021994461769</v>
+      </c>
+      <c r="H76">
+        <v>-0.2704515001197086</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>59118</v>
+      </c>
+      <c r="C77">
+        <v>-28435.11333024216</v>
+      </c>
+      <c r="D77">
+        <v>-18519.24676839421</v>
+      </c>
+      <c r="E77">
+        <v>-4047.737974392646</v>
+      </c>
+      <c r="F77">
+        <v>2.514856309977377</v>
+      </c>
+      <c r="G77">
+        <v>-2.754263667027701</v>
+      </c>
+      <c r="H77">
+        <v>-0.5743149799940935</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>59119</v>
+      </c>
+      <c r="C78">
+        <v>-37513.9943782932</v>
+      </c>
+      <c r="D78">
+        <v>-2347.237913213395</v>
+      </c>
+      <c r="E78">
+        <v>-652.3214288473007</v>
+      </c>
+      <c r="F78">
+        <v>0.9992660900266184</v>
+      </c>
+      <c r="G78">
+        <v>-3.262553540301375</v>
+      </c>
+      <c r="H78">
+        <v>-0.688393661753241</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>59120</v>
+      </c>
+      <c r="C79">
+        <v>-39150.14143308991</v>
+      </c>
+      <c r="D79">
+        <v>14475.91623971269</v>
+      </c>
+      <c r="E79">
+        <v>2911.175621923364</v>
+      </c>
+      <c r="F79">
+        <v>-0.2931773074356024</v>
+      </c>
+      <c r="G79">
+        <v>-3.073966128943763</v>
+      </c>
+      <c r="H79">
+        <v>-0.6536301734583126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>59121</v>
+      </c>
+      <c r="C80">
+        <v>-35077.66707061088</v>
+      </c>
+      <c r="D80">
+        <v>29262.77423456164</v>
+      </c>
+      <c r="E80">
+        <v>6065.246782339173</v>
+      </c>
+      <c r="F80">
+        <v>-1.206626612644146</v>
+      </c>
+      <c r="G80">
+        <v>-2.54118867268205</v>
+      </c>
+      <c r="H80">
+        <v>-0.5442904107297838</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>59122</v>
+      </c>
+      <c r="C81">
+        <v>-27214.76470680428</v>
+      </c>
+      <c r="D81">
+        <v>40861.62732754497</v>
+      </c>
+      <c r="E81">
+        <v>8558.066979438439</v>
+      </c>
+      <c r="F81">
+        <v>-1.788364751636078</v>
+      </c>
+      <c r="G81">
+        <v>-1.88255378475255</v>
+      </c>
+      <c r="H81">
+        <v>-0.4069258798478794</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>59123</v>
+      </c>
+      <c r="C82">
+        <v>-17101.6030716356</v>
+      </c>
+      <c r="D82">
+        <v>48942.38138336664</v>
+      </c>
+      <c r="E82">
+        <v>10313.91791750348</v>
+      </c>
+      <c r="F82">
+        <v>-2.117971735787537</v>
+      </c>
+      <c r="G82">
+        <v>-1.199433560338131</v>
+      </c>
+      <c r="H82">
+        <v>-0.263368202080425</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>59124</v>
+      </c>
+      <c r="C83">
+        <v>-5887.110933302773</v>
+      </c>
+      <c r="D83">
+        <v>53534.06376983379</v>
+      </c>
+      <c r="E83">
+        <v>11334.75220100772</v>
+      </c>
+      <c r="F83">
+        <v>-2.258298188495933</v>
+      </c>
+      <c r="G83">
+        <v>-0.5330546831457721</v>
+      </c>
+      <c r="H83">
+        <v>-0.1225986389685283</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>59125</v>
+      </c>
+      <c r="C84">
+        <v>5563.365579442044</v>
+      </c>
+      <c r="D84">
+        <v>54803.25881454726</v>
+      </c>
+      <c r="E84">
+        <v>11652.49683676743</v>
+      </c>
+      <c r="F84">
+        <v>-2.250427079862728</v>
+      </c>
+      <c r="G84">
+        <v>0.1019131409309929</v>
+      </c>
+      <c r="H84">
+        <v>0.01213179898993339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>59126</v>
+      </c>
+      <c r="C85">
+        <v>16563.75704827726</v>
+      </c>
+      <c r="D85">
+        <v>52958.79427354808</v>
+      </c>
+      <c r="E85">
+        <v>11308.32233116658</v>
+      </c>
+      <c r="F85">
+        <v>-2.117545949140596</v>
+      </c>
+      <c r="G85">
+        <v>0.7013650976752753</v>
+      </c>
+      <c r="H85">
+        <v>0.1398820278917905</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>59127</v>
+      </c>
+      <c r="C86">
+        <v>26523.71952171186</v>
+      </c>
+      <c r="D86">
+        <v>48215.76872408415</v>
+      </c>
+      <c r="E86">
+        <v>10344.7529328418</v>
+      </c>
+      <c r="F86">
+        <v>-1.868509892186242</v>
+      </c>
+      <c r="G86">
+        <v>1.263985029361921</v>
+      </c>
+      <c r="H86">
+        <v>0.260349000503321</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>59128</v>
+      </c>
+      <c r="C87">
+        <v>34878.39642222089</v>
+      </c>
+      <c r="D87">
+        <v>40790.80235834509</v>
+      </c>
+      <c r="E87">
+        <v>8804.575483483841</v>
+      </c>
+      <c r="F87">
+        <v>-1.49943817737142</v>
+      </c>
+      <c r="G87">
+        <v>1.786291967315119</v>
+      </c>
+      <c r="H87">
+        <v>0.3728068454377559</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>59129</v>
+      </c>
+      <c r="C88">
+        <v>41020.87059705029</v>
+      </c>
+      <c r="D88">
+        <v>30922.66360850872</v>
+      </c>
+      <c r="E88">
+        <v>6735.209377720001</v>
+      </c>
+      <c r="F88">
+        <v>-0.9933561604782005</v>
+      </c>
+      <c r="G88">
+        <v>2.257118474160988</v>
+      </c>
+      <c r="H88">
+        <v>0.4749331779305794</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>59130</v>
+      </c>
+      <c r="C89">
+        <v>44228.43990662454</v>
+      </c>
+      <c r="D89">
+        <v>18929.90057634491</v>
+      </c>
+      <c r="E89">
+        <v>4200.955029821617</v>
+      </c>
+      <c r="F89">
+        <v>-0.3186042044569682</v>
+      </c>
+      <c r="G89">
+        <v>2.64778838725551</v>
+      </c>
+      <c r="H89">
+        <v>0.560722820232029</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>59131</v>
+      </c>
+      <c r="C90">
+        <v>43581.57984424422</v>
+      </c>
+      <c r="D90">
+        <v>5341.741413326688</v>
+      </c>
+      <c r="E90">
+        <v>1310.742322891646</v>
+      </c>
+      <c r="F90">
+        <v>0.5708115770295623</v>
+      </c>
+      <c r="G90">
+        <v>2.891473726406904</v>
+      </c>
+      <c r="H90">
+        <v>0.6161195385860712</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>59132</v>
+      </c>
+      <c r="C91">
+        <v>37921.98318679424</v>
+      </c>
+      <c r="D91">
+        <v>-8814.378932656191</v>
+      </c>
+      <c r="E91">
+        <v>-1720.640346447</v>
+      </c>
+      <c r="F91">
+        <v>1.713544692338726</v>
+      </c>
+      <c r="G91">
+        <v>2.839648461499257</v>
+      </c>
+      <c r="H91">
+        <v>0.6095933198799809</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>59133</v>
+      </c>
+      <c r="C92">
+        <v>26066.51268628594</v>
+      </c>
+      <c r="D92">
+        <v>-21443.8624058532</v>
+      </c>
+      <c r="E92">
+        <v>-4450.917949127363</v>
+      </c>
+      <c r="F92">
+        <v>3.041448853392548</v>
+      </c>
+      <c r="G92">
+        <v>2.201564463172963</v>
+      </c>
+      <c r="H92">
+        <v>0.4790801695175119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>59134</v>
+      </c>
+      <c r="C93">
+        <v>7985.659370042643</v>
+      </c>
+      <c r="D93">
+        <v>-28733.56337782796</v>
+      </c>
+      <c r="E93">
+        <v>-6068.395545440723</v>
+      </c>
+      <c r="F93">
+        <v>4.082630197461842</v>
+      </c>
+      <c r="G93">
+        <v>0.640382765177637</v>
+      </c>
+      <c r="H93">
+        <v>0.1512790876826948</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>59135</v>
+      </c>
+      <c r="C94">
+        <v>-12638.01052028901</v>
+      </c>
+      <c r="D94">
+        <v>-26416.76308863852</v>
+      </c>
+      <c r="E94">
+        <v>-5652.475084924085</v>
+      </c>
+      <c r="F94">
+        <v>3.91195332276439</v>
+      </c>
+      <c r="G94">
+        <v>-1.495183408569081</v>
+      </c>
+      <c r="H94">
+        <v>-0.3030034631574028</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>59136</v>
+      </c>
+      <c r="C95">
+        <v>-28993.52941562768</v>
+      </c>
+      <c r="D95">
+        <v>-14662.1362807001</v>
+      </c>
+      <c r="E95">
+        <v>-3215.108461476208</v>
+      </c>
+      <c r="F95">
+        <v>2.505140563954589</v>
+      </c>
+      <c r="G95">
+        <v>-2.942937108846487</v>
+      </c>
+      <c r="H95">
+        <v>-0.6155948905341657</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>59137</v>
+      </c>
+      <c r="C96">
+        <v>-37462.64339648325</v>
+      </c>
+      <c r="D96">
+        <v>1468.515567090076</v>
+      </c>
+      <c r="E96">
+        <v>180.347278184465</v>
+      </c>
+      <c r="F96">
+        <v>0.9249239581720664</v>
+      </c>
+      <c r="G96">
+        <v>-3.289655187377754</v>
+      </c>
+      <c r="H96">
+        <v>-0.6948855097184642</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>59138</v>
+      </c>
+      <c r="C97">
+        <v>-38910.71463993991</v>
+      </c>
+      <c r="D97">
+        <v>17510.51116156246</v>
+      </c>
+      <c r="E97">
+        <v>3582.199736632411</v>
+      </c>
+      <c r="F97">
+        <v>-0.2720505705826034</v>
+      </c>
+      <c r="G97">
+        <v>-3.00540626353507</v>
+      </c>
+      <c r="H97">
+        <v>-0.6387698979241607</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>59139</v>
+      </c>
+      <c r="C98">
+        <v>-35439.60608899048</v>
+      </c>
+      <c r="D98">
+        <v>31374.20724653615</v>
+      </c>
+      <c r="E98">
+        <v>6539.404982240013</v>
+      </c>
+      <c r="F98">
+        <v>-1.072216283336183</v>
+      </c>
+      <c r="G98">
+        <v>-2.480119014057527</v>
+      </c>
+      <c r="H98">
+        <v>-0.530019434755019</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>59140</v>
+      </c>
+      <c r="C99">
+        <v>-28813.14755540214</v>
+      </c>
+      <c r="D99">
+        <v>42365.41231415082</v>
+      </c>
+      <c r="E99">
+        <v>8898.245331606564</v>
+      </c>
+      <c r="F99">
+        <v>-1.580542875145547</v>
+      </c>
+      <c r="G99">
+        <v>-1.888336328975617</v>
+      </c>
+      <c r="H99">
+        <v>-0.406056265815384</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>59141</v>
+      </c>
+      <c r="C100">
+        <v>-20280.42995758831</v>
+      </c>
+      <c r="D100">
+        <v>50364.96925972339</v>
+      </c>
+      <c r="E100">
+        <v>10628.29508275598</v>
+      </c>
+      <c r="F100">
+        <v>-1.885211371371338</v>
+      </c>
+      <c r="G100">
+        <v>-1.294964063495553</v>
+      </c>
+      <c r="H100">
+        <v>-0.2809611211302517</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>59142</v>
+      </c>
+      <c r="C101">
+        <v>-10711.20922028455</v>
+      </c>
+      <c r="D101">
+        <v>55457.17092692893</v>
+      </c>
+      <c r="E101">
+        <v>11743.18993714487</v>
+      </c>
+      <c r="F101">
+        <v>-2.043717332790818</v>
+      </c>
+      <c r="G101">
+        <v>-0.7205202387773441</v>
+      </c>
+      <c r="H101">
+        <v>-0.1592996314324651</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>59143</v>
+      </c>
+      <c r="C102">
+        <v>-734.0584936787926</v>
+      </c>
+      <c r="D102">
+        <v>57780.14316185642</v>
+      </c>
+      <c r="E102">
+        <v>12268.87086721489</v>
+      </c>
+      <c r="F102">
+        <v>-2.090304841642428</v>
+      </c>
+      <c r="G102">
+        <v>-0.1684385250916547</v>
+      </c>
+      <c r="H102">
+        <v>-0.04195285631608361</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>59144</v>
+      </c>
+      <c r="C103">
+        <v>9162.291059967589</v>
+      </c>
+      <c r="D103">
+        <v>57467.78315126104</v>
+      </c>
+      <c r="E103">
+        <v>12231.36726091965</v>
+      </c>
+      <c r="F103">
+        <v>-2.043044669312593</v>
+      </c>
+      <c r="G103">
+        <v>0.3640343731707725</v>
+      </c>
+      <c r="H103">
+        <v>0.07154947146505251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>59145</v>
+      </c>
+      <c r="C104">
+        <v>18555.89753355199</v>
+      </c>
+      <c r="D104">
+        <v>54630.10851753785</v>
+      </c>
+      <c r="E104">
+        <v>11652.58168256865</v>
+      </c>
+      <c r="F104">
+        <v>-1.907960462289803</v>
+      </c>
+      <c r="G104">
+        <v>0.8812262670374297</v>
+      </c>
+      <c r="H104">
+        <v>0.1820443452172268</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>59146</v>
+      </c>
+      <c r="C105">
+        <v>27034.14387751519</v>
+      </c>
+      <c r="D105">
+        <v>49351.34578676734</v>
+      </c>
+      <c r="E105">
+        <v>10549.66087260079</v>
+      </c>
+      <c r="F105">
+        <v>-1.680505340958679</v>
+      </c>
+      <c r="G105">
+        <v>1.386561170008674</v>
+      </c>
+      <c r="H105">
+        <v>0.2902091697574805</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>59147</v>
+      </c>
+      <c r="C106">
+        <v>34139.47141968597</v>
+      </c>
+      <c r="D106">
+        <v>41699.57955961024</v>
+      </c>
+      <c r="E106">
+        <v>8936.731505081028</v>
+      </c>
+      <c r="F106">
+        <v>-1.344564909068414</v>
+      </c>
+      <c r="G106">
+        <v>1.880041602597329</v>
+      </c>
+      <c r="H106">
+        <v>0.3960278276924436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>59148</v>
+      </c>
+      <c r="C107">
+        <v>39304.75487473934</v>
+      </c>
+      <c r="D107">
+        <v>31752.36662748912</v>
+      </c>
+      <c r="E107">
+        <v>6830.02204212444</v>
+      </c>
+      <c r="F107">
+        <v>-0.8685948351214225</v>
+      </c>
+      <c r="G107">
+        <v>2.353362901748625</v>
+      </c>
+      <c r="H107">
+        <v>0.4977541901853179</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>59149</v>
+      </c>
+      <c r="C108">
+        <v>41760.95136330197</v>
+      </c>
+      <c r="D108">
+        <v>19658.8318840664</v>
+      </c>
+      <c r="E108">
+        <v>4260.694596193503</v>
+      </c>
+      <c r="F108">
+        <v>-0.1979900593247817</v>
+      </c>
+      <c r="G108">
+        <v>2.777852871264524</v>
+      </c>
+      <c r="H108">
+        <v>0.5893862753983738</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>59150</v>
+      </c>
+      <c r="C109">
+        <v>40403.2133476458</v>
+      </c>
+      <c r="D109">
+        <v>5801.529835183332</v>
+      </c>
+      <c r="E109">
+        <v>1309.183794117898</v>
+      </c>
+      <c r="F109">
+        <v>0.7522304563649033</v>
+      </c>
+      <c r="G109">
+        <v>3.070857234042597</v>
+      </c>
+      <c r="H109">
+        <v>0.6533827295565424</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>59151</v>
+      </c>
+      <c r="C110">
+        <v>33651.17175145887</v>
+      </c>
+      <c r="D110">
+        <v>-8771.296710228657</v>
+      </c>
+      <c r="E110">
+        <v>-1802.965239074281</v>
+      </c>
+      <c r="F110">
+        <v>2.078935296662786</v>
+      </c>
+      <c r="G110">
+        <v>3.009505430568625</v>
+      </c>
+      <c r="H110">
+        <v>0.6424982947742821</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>59152</v>
+      </c>
+      <c r="C111">
+        <v>19738.07565866184</v>
+      </c>
+      <c r="D111">
+        <v>-21295.66819324671</v>
+      </c>
+      <c r="E111">
+        <v>-4489.300997319643</v>
+      </c>
+      <c r="F111">
+        <v>3.674342349454931</v>
+      </c>
+      <c r="G111">
+        <v>2.079912751172771</v>
+      </c>
+      <c r="H111">
+        <v>0.4472523645277033</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>59153</v>
+      </c>
+      <c r="C112">
+        <v>-788.462000821066</v>
+      </c>
+      <c r="D112">
+        <v>-26208.42756974935</v>
+      </c>
+      <c r="E112">
+        <v>-5564.097918504744</v>
+      </c>
+      <c r="F112">
+        <v>4.539423675934194</v>
+      </c>
+      <c r="G112">
+        <v>-0.1544487173610282</v>
+      </c>
+      <c r="H112">
+        <v>-0.02664362293365283</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>59154</v>
+      </c>
+      <c r="C113">
+        <v>-21061.05136125509</v>
+      </c>
+      <c r="D113">
+        <v>-19445.1444538145</v>
+      </c>
+      <c r="E113">
+        <v>-4151.540213261886</v>
+      </c>
+      <c r="F113">
+        <v>3.531754423315733</v>
+      </c>
+      <c r="G113">
+        <v>-2.384234441986164</v>
+      </c>
+      <c r="H113">
+        <v>-0.5022069455855496</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>59155</v>
+      </c>
+      <c r="C114">
+        <v>-34010.1650403914</v>
+      </c>
+      <c r="D114">
+        <v>-5154.74458935247</v>
+      </c>
+      <c r="E114">
+        <v>-1124.254700618575</v>
+      </c>
+      <c r="F114">
+        <v>1.797535520146597</v>
+      </c>
+      <c r="G114">
+        <v>-3.217555198953137</v>
+      </c>
+      <c r="H114">
+        <v>-0.6816192657293043</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>59156</v>
+      </c>
+      <c r="C115">
+        <v>-39266.13130283322</v>
+      </c>
+      <c r="D115">
+        <v>10633.19348106408</v>
+      </c>
+      <c r="E115">
+        <v>2234.165037006363</v>
+      </c>
+      <c r="F115">
+        <v>0.4299849632246159</v>
+      </c>
+      <c r="G115">
+        <v>-3.134589611890099</v>
+      </c>
+      <c r="H115">
+        <v>-0.6654481254067219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>59157</v>
+      </c>
+      <c r="C116">
+        <v>-39051.28768208277</v>
+      </c>
+      <c r="D116">
+        <v>25022.65712425148</v>
+      </c>
+      <c r="E116">
+        <v>5302.377752302091</v>
+      </c>
+      <c r="F116">
+        <v>-0.4849713134741198</v>
+      </c>
+      <c r="G116">
+        <v>-2.719573817087263</v>
+      </c>
+      <c r="H116">
+        <v>-0.5778507166123904</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>59158</v>
+      </c>
+      <c r="C117">
+        <v>-35265.84784829376</v>
+      </c>
+      <c r="D117">
+        <v>37080.84749873546</v>
+      </c>
+      <c r="E117">
+        <v>7876.868076358031</v>
+      </c>
+      <c r="F117">
+        <v>-1.083027367297847</v>
+      </c>
+      <c r="G117">
+        <v>-2.212243942827449</v>
+      </c>
+      <c r="H117">
+        <v>-0.4700457695216635</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>59159</v>
+      </c>
+      <c r="C118">
+        <v>-29180.94828548454</v>
+      </c>
+      <c r="D118">
+        <v>46603.17800864006</v>
+      </c>
+      <c r="E118">
+        <v>9910.235791754887</v>
+      </c>
+      <c r="F118">
+        <v>-1.47291086343275</v>
+      </c>
+      <c r="G118">
+        <v>-1.692206774732024</v>
+      </c>
+      <c r="H118">
+        <v>-0.3591792787110982</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>59160</v>
+      </c>
+      <c r="C119">
+        <v>-21634.50916078519</v>
+      </c>
+      <c r="D119">
+        <v>53616.15590440193</v>
+      </c>
+      <c r="E119">
+        <v>11405.5076769051</v>
+      </c>
+      <c r="F119">
+        <v>-1.721285635324753</v>
+      </c>
+      <c r="G119">
+        <v>-1.182520782093328</v>
+      </c>
+      <c r="H119">
+        <v>-0.2503185024991447</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>59161</v>
+      </c>
+      <c r="C120">
+        <v>-13204.943460233</v>
+      </c>
+      <c r="D120">
+        <v>58202.21522538661</v>
+      </c>
+      <c r="E120">
+        <v>12378.829635463</v>
+      </c>
+      <c r="F120">
+        <v>-1.866820762840536</v>
+      </c>
+      <c r="G120">
+        <v>-0.6866320874670749</v>
+      </c>
+      <c r="H120">
+        <v>-0.144318324831123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>59162</v>
+      </c>
+      <c r="C121">
+        <v>-4322.854489488843</v>
+      </c>
+      <c r="D121">
+        <v>60438.14247573192</v>
+      </c>
+      <c r="E121">
+        <v>12846.26836426452</v>
+      </c>
+      <c r="F121">
+        <v>-1.930831632875503</v>
+      </c>
+      <c r="G121">
+        <v>-0.2010977102089022</v>
+      </c>
+      <c r="H121">
+        <v>-0.04054122257294272</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>59163</v>
+      </c>
+      <c r="C122">
+        <v>4657.340997369916</v>
+      </c>
+      <c r="D122">
+        <v>60373.89168741139</v>
+      </c>
+      <c r="E122">
+        <v>12819.12264426889</v>
+      </c>
+      <c r="F122">
+        <v>-1.923089086646351</v>
+      </c>
+      <c r="G122">
+        <v>0.279894203690761</v>
+      </c>
+      <c r="H122">
+        <v>0.06216950361932289</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>59164</v>
+      </c>
+      <c r="C123">
+        <v>13406.85540189164</v>
+      </c>
+      <c r="D123">
+        <v>58026.09102677368</v>
+      </c>
+      <c r="E123">
+        <v>12302.24430666871</v>
+      </c>
+      <c r="F123">
+        <v>-1.844343940384823</v>
+      </c>
+      <c r="G123">
+        <v>0.7628717190051704</v>
+      </c>
+      <c r="H123">
+        <v>0.1651323928844199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>59165</v>
+      </c>
+      <c r="C124">
+        <v>21580.10309563222</v>
+      </c>
+      <c r="D124">
+        <v>53376.55367441718</v>
+      </c>
+      <c r="E124">
+        <v>11293.32615396641</v>
+      </c>
+      <c r="F124">
+        <v>-1.686383692796949</v>
+      </c>
+      <c r="G124">
+        <v>1.254331512012469</v>
+      </c>
+      <c r="H124">
+        <v>0.2696611179929226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>59166</v>
+      </c>
+      <c r="C125">
+        <v>28768.24950662282</v>
+      </c>
+      <c r="D125">
+        <v>46373.07280449512</v>
+      </c>
+      <c r="E125">
+        <v>9782.792193695503</v>
+      </c>
+      <c r="F125">
+        <v>-1.429331699863266</v>
+      </c>
+      <c r="G125">
+        <v>1.759722732999203</v>
+      </c>
+      <c r="H125">
+        <v>0.3768232187978156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>59167</v>
+      </c>
+      <c r="C126">
+        <v>34430.43853626559</v>
+      </c>
+      <c r="D126">
+        <v>36937.19192910899</v>
+      </c>
+      <c r="E126">
+        <v>7755.657293934786</v>
+      </c>
+      <c r="F126">
+        <v>-1.034496879371506</v>
+      </c>
+      <c r="G126">
+        <v>2.280191936590886</v>
+      </c>
+      <c r="H126">
+        <v>0.4866928518950664</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>59168</v>
+      </c>
+      <c r="C127">
+        <v>37769.72613487609</v>
+      </c>
+      <c r="D127">
+        <v>25001.90081684698</v>
+      </c>
+      <c r="E127">
+        <v>5200.544691546653</v>
+      </c>
+      <c r="F127">
+        <v>-0.4289208945559234</v>
+      </c>
+      <c r="G127">
+        <v>2.801115002530123</v>
+      </c>
+      <c r="H127">
+        <v>0.5958153688495985</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>59169</v>
+      </c>
+      <c r="C128">
+        <v>37496.47810966067</v>
+      </c>
+      <c r="D128">
+        <v>10661.51631843195</v>
+      </c>
+      <c r="E128">
+        <v>2143.474664486304</v>
+      </c>
+      <c r="F128">
+        <v>0.5234782014014968</v>
+      </c>
+      <c r="G128">
+        <v>3.250911827065345</v>
+      </c>
+      <c r="H128">
+        <v>0.6882926867235488</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>59170</v>
+      </c>
+      <c r="C129">
+        <v>31438.5261016008</v>
+      </c>
+      <c r="D129">
+        <v>-5267.304276792152</v>
+      </c>
+      <c r="E129">
+        <v>-1230.085398672888</v>
+      </c>
+      <c r="F129">
+        <v>2.037788443448623</v>
+      </c>
+      <c r="G129">
+        <v>3.351916054815955</v>
+      </c>
+      <c r="H129">
+        <v>0.7039532517620283</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>59171</v>
+      </c>
+      <c r="C130">
+        <v>16633.84929792278</v>
+      </c>
+      <c r="D130">
+        <v>-19377.89137386175</v>
+      </c>
+      <c r="E130">
+        <v>-4177.370034972076</v>
+      </c>
+      <c r="F130">
+        <v>4.055965347988607</v>
+      </c>
+      <c r="G130">
+        <v>2.243649078766727</v>
+      </c>
+      <c r="H130">
+        <v>0.4596965285869906</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>59172</v>
+      </c>
+      <c r="C131">
+        <v>-5952.393401887125</v>
+      </c>
+      <c r="D131">
+        <v>-23502.41785314016</v>
+      </c>
+      <c r="E131">
+        <v>-4957.804670469386</v>
+      </c>
+      <c r="F131">
+        <v>4.759394919864381</v>
+      </c>
+      <c r="G131">
+        <v>-0.6509470497063279</v>
+      </c>
+      <c r="H131">
+        <v>-0.159371680450696</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>59173</v>
+      </c>
+      <c r="C132">
+        <v>-25773.88842540682</v>
+      </c>
+      <c r="D132">
+        <v>-14387.18236412058</v>
+      </c>
+      <c r="E132">
+        <v>-2923.524822260844</v>
+      </c>
+      <c r="F132">
+        <v>3.168619333617371</v>
+      </c>
+      <c r="G132">
+        <v>-2.714971770704766</v>
+      </c>
+      <c r="H132">
+        <v>-0.5913759778018346</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>59174</v>
+      </c>
+      <c r="C133">
+        <v>-36918.27607285836</v>
+      </c>
+      <c r="D133">
+        <v>379.6832219458377</v>
+      </c>
+      <c r="E133">
+        <v>279.0016512705393</v>
+      </c>
+      <c r="F133">
+        <v>1.468626862498127</v>
+      </c>
+      <c r="G133">
+        <v>-3.141165767692832</v>
+      </c>
+      <c r="H133">
+        <v>-0.673898442423568</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>59175</v>
+      </c>
+      <c r="C134">
+        <v>-41138.48275411233</v>
+      </c>
+      <c r="D134">
+        <v>15289.79288320511</v>
+      </c>
+      <c r="E134">
+        <v>3479.625225914029</v>
+      </c>
+      <c r="F134">
+        <v>0.3120677402917034</v>
+      </c>
+      <c r="G134">
+        <v>-2.917846517397414</v>
+      </c>
+      <c r="H134">
+        <v>-0.6203664964363144</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>59176</v>
+      </c>
+      <c r="C135">
+        <v>-40817.48075544275</v>
+      </c>
+      <c r="D135">
+        <v>28523.27218560196</v>
+      </c>
+      <c r="E135">
+        <v>6298.417590023681</v>
+      </c>
+      <c r="F135">
+        <v>-0.4456191379959543</v>
+      </c>
+      <c r="G135">
+        <v>-2.5090553974918</v>
+      </c>
+      <c r="H135">
+        <v>-0.5290542605702764</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>59177</v>
+      </c>
+      <c r="C136">
+        <v>-37518.25247709077</v>
+      </c>
+      <c r="D136">
+        <v>39607.92693529568</v>
+      </c>
+      <c r="E136">
+        <v>8640.385512058265</v>
+      </c>
+      <c r="F136">
+        <v>-0.9549627141340845</v>
+      </c>
+      <c r="G136">
+        <v>-2.056583859504565</v>
+      </c>
+      <c r="H136">
+        <v>-0.4295549748781868</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>59178</v>
+      </c>
+      <c r="C137">
+        <v>-32217.30005118224</v>
+      </c>
+      <c r="D137">
+        <v>48468.71368544742</v>
+      </c>
+      <c r="E137">
+        <v>10493.45045211667</v>
+      </c>
+      <c r="F137">
+        <v>-1.305082142634352</v>
+      </c>
+      <c r="G137">
+        <v>-1.601179232628806</v>
+      </c>
+      <c r="H137">
+        <v>-0.3301913296328732</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>59179</v>
+      </c>
+      <c r="C138">
+        <v>-25555.3532163157</v>
+      </c>
+      <c r="D138">
+        <v>55136.33122814279</v>
+      </c>
+      <c r="E138">
+        <v>11867.04990558234</v>
+      </c>
+      <c r="F138">
+        <v>-1.546164147935774</v>
+      </c>
+      <c r="G138">
+        <v>-1.152269423623453</v>
+      </c>
+      <c r="H138">
+        <v>-0.2327753215298732</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>59180</v>
+      </c>
+      <c r="C139">
+        <v>-17983.5168393561</v>
+      </c>
+      <c r="D139">
+        <v>59655.11272130054</v>
+      </c>
+      <c r="E139">
+        <v>12772.8848625906</v>
+      </c>
+      <c r="F139">
+        <v>-1.706515514140467</v>
+      </c>
+      <c r="G139">
+        <v>-0.7087951452443604</v>
+      </c>
+      <c r="H139">
+        <v>-0.136979740544353</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>59181</v>
+      </c>
+      <c r="C140">
+        <v>-9846.076450889819</v>
+      </c>
+      <c r="D140">
+        <v>62051.253095402</v>
+      </c>
+      <c r="E140">
+        <v>13218.37338244747</v>
+      </c>
+      <c r="F140">
+        <v>-1.801458691987663</v>
+      </c>
+      <c r="G140">
+        <v>-0.2657248882965118</v>
+      </c>
+      <c r="H140">
+        <v>-0.04169742759927108</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>59182</v>
+      </c>
+      <c r="C141">
+        <v>-1431.71385461103</v>
+      </c>
+      <c r="D141">
+        <v>62319.44768021328</v>
+      </c>
+      <c r="E141">
+        <v>13204.02933036651</v>
+      </c>
+      <c r="F141">
+        <v>-1.837464530546748</v>
+      </c>
+      <c r="G141">
+        <v>0.1839621124009975</v>
+      </c>
+      <c r="H141">
+        <v>0.05454119178399817</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>59183</v>
+      </c>
+      <c r="C142">
+        <v>6988.296884624835</v>
+      </c>
+      <c r="D142">
+        <v>60414.06906784826</v>
+      </c>
+      <c r="E142">
+        <v>12721.92619368363</v>
+      </c>
+      <c r="F142">
+        <v>-1.813400844355446</v>
+      </c>
+      <c r="G142">
+        <v>0.6488816140348883</v>
+      </c>
+      <c r="H142">
+        <v>0.1534719578728228</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>59184</v>
+      </c>
+      <c r="C143">
+        <v>15121.9518446055</v>
+      </c>
+      <c r="D143">
+        <v>56239.95767636609</v>
+      </c>
+      <c r="E143">
+        <v>11754.29725468244</v>
+      </c>
+      <c r="F143">
+        <v>-1.719369442607898</v>
+      </c>
+      <c r="G143">
+        <v>1.139399909821952</v>
+      </c>
+      <c r="H143">
+        <v>0.2570980375011236</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>59185</v>
+      </c>
+      <c r="C144">
+        <v>22604.70509395367</v>
+      </c>
+      <c r="D144">
+        <v>49641.96862351971</v>
+      </c>
+      <c r="E144">
+        <v>10272.22067227264</v>
+      </c>
+      <c r="F144">
+        <v>-1.532262315389942</v>
+      </c>
+      <c r="G144">
+        <v>1.667618018520424</v>
+      </c>
+      <c r="H144">
+        <v>0.3676164527260408</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>59186</v>
+      </c>
+      <c r="C145">
+        <v>28911.20022358351</v>
+      </c>
+      <c r="D145">
+        <v>40397.7750691114</v>
+      </c>
+      <c r="E145">
+        <v>8235.605108877053</v>
+      </c>
+      <c r="F145">
+        <v>-1.204880917865011</v>
+      </c>
+      <c r="G145">
+        <v>2.245456755473489</v>
+      </c>
+      <c r="H145">
+        <v>0.4868588650841978</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>59187</v>
+      </c>
+      <c r="C146">
+        <v>33181.3299804401</v>
+      </c>
+      <c r="D146">
+        <v>28236.33413561448</v>
+      </c>
+      <c r="E146">
+        <v>5599.786513008476</v>
+      </c>
+      <c r="F146">
+        <v>-0.6401486456934276</v>
+      </c>
+      <c r="G146">
+        <v>2.87375142636256</v>
+      </c>
+      <c r="H146">
+        <v>0.6136416772267861</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>59188</v>
+      </c>
+      <c r="C147">
+        <v>33845.43235927448</v>
+      </c>
+      <c r="D147">
+        <v>12986.61938556145</v>
+      </c>
+      <c r="E147">
+        <v>2352.20938319172</v>
+      </c>
+      <c r="F147">
+        <v>0.3684677844438766</v>
+      </c>
+      <c r="G147">
+        <v>3.488191061099914</v>
+      </c>
+      <c r="H147">
+        <v>0.7315664134971364</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>59189</v>
+      </c>
+      <c r="C148">
+        <v>27869.45894969169</v>
+      </c>
+      <c r="D148">
+        <v>-4622.928668074845</v>
+      </c>
+      <c r="E148">
+        <v>-1308.572924753426</v>
+      </c>
+      <c r="F148">
+        <v>2.208480042819658</v>
+      </c>
+      <c r="G148">
+        <v>3.69277009148654</v>
+      </c>
+      <c r="H148">
+        <v>0.7517665302535499</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>59190</v>
+      </c>
+      <c r="C149">
+        <v>10894.59100909071</v>
+      </c>
+      <c r="D149">
+        <v>-19557.96451621697</v>
+      </c>
+      <c r="E149">
+        <v>-4254.924113745717</v>
+      </c>
+      <c r="F149">
+        <v>4.660818174645002</v>
+      </c>
+      <c r="G149">
+        <v>2.003509458923266</v>
+      </c>
+      <c r="H149">
+        <v>0.3633300474200381</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>59191</v>
+      </c>
+      <c r="C150">
+        <v>-13140.99457393869</v>
+      </c>
+      <c r="D150">
+        <v>-20722.10732692881</v>
+      </c>
+      <c r="E150">
+        <v>-4187.4609957301</v>
+      </c>
+      <c r="F150">
+        <v>4.568863538665582</v>
+      </c>
+      <c r="G150">
+        <v>-1.383103686756609</v>
+      </c>
+      <c r="H150">
+        <v>-0.3509919889068508</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>59192</v>
+      </c>
+      <c r="C151">
+        <v>-30876.25268596939</v>
+      </c>
+      <c r="D151">
+        <v>-9601.978669679798</v>
+      </c>
+      <c r="E151">
+        <v>-1597.590266686724</v>
+      </c>
+      <c r="F151">
+        <v>2.678192029763076</v>
+      </c>
+      <c r="G151">
+        <v>-2.818120812303882</v>
+      </c>
+      <c r="H151">
+        <v>-0.6291596668433456</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>59193</v>
+      </c>
+      <c r="C152">
+        <v>-40212.75730359738</v>
+      </c>
+      <c r="D152">
+        <v>4705.916183887672</v>
+      </c>
+      <c r="E152">
+        <v>1557.986574621625</v>
+      </c>
+      <c r="F152">
+        <v>1.223028604078606</v>
+      </c>
+      <c r="G152">
+        <v>-2.943424899030952</v>
+      </c>
+      <c r="H152">
+        <v>-0.6359235113284566</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>59194</v>
+      </c>
+      <c r="C153">
+        <v>-43809.38129048199</v>
+      </c>
+      <c r="D153">
+        <v>18442.84214725238</v>
+      </c>
+      <c r="E153">
+        <v>4515.489507201337</v>
+      </c>
+      <c r="F153">
+        <v>0.2711605047803414</v>
+      </c>
+      <c r="G153">
+        <v>-2.681730711582294</v>
+      </c>
+      <c r="H153">
+        <v>-0.5673067201995792</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>59195</v>
+      </c>
+      <c r="C154">
+        <v>-43642.72091872499</v>
+      </c>
+      <c r="D154">
+        <v>30560.19299512167</v>
+      </c>
+      <c r="E154">
+        <v>7076.940208538863</v>
+      </c>
+      <c r="F154">
+        <v>-0.3713163237774659</v>
+      </c>
+      <c r="G154">
+        <v>-2.31453244857105</v>
+      </c>
+      <c r="H154">
+        <v>-0.480339047178103</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>59196</v>
+      </c>
+      <c r="C155">
+        <v>-40907.43885086394</v>
+      </c>
+      <c r="D155">
+        <v>40786.58956219524</v>
+      </c>
+      <c r="E155">
+        <v>9199.004941991125</v>
+      </c>
+      <c r="F155">
+        <v>-0.8248747986712686</v>
+      </c>
+      <c r="G155">
+        <v>-1.921308784025692</v>
+      </c>
+      <c r="H155">
+        <v>-0.3902834343252151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>59197</v>
+      </c>
+      <c r="C156">
+        <v>-36349.21762118518</v>
+      </c>
+      <c r="D156">
+        <v>49071.48085085728</v>
+      </c>
+      <c r="E156">
+        <v>10879.26056364904</v>
+      </c>
+      <c r="F156">
+        <v>-1.155879356786546</v>
+      </c>
+      <c r="G156">
+        <v>-1.524204949438053</v>
+      </c>
+      <c r="H156">
+        <v>-0.300990232270827</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>59198</v>
+      </c>
+      <c r="C157">
+        <v>-30461.71201570779</v>
+      </c>
+      <c r="D157">
+        <v>55421.37280372715</v>
+      </c>
+      <c r="E157">
+        <v>12124.25704008766</v>
+      </c>
+      <c r="F157">
+        <v>-1.401656773379604</v>
+      </c>
+      <c r="G157">
+        <v>-1.127038465516444</v>
+      </c>
+      <c r="H157">
+        <v>-0.21283040295667</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>59199</v>
+      </c>
+      <c r="C158">
+        <v>-23592.95932432483</v>
+      </c>
+      <c r="D158">
+        <v>59843.33489710608</v>
+      </c>
+      <c r="E158">
+        <v>12939.34003650104</v>
+      </c>
+      <c r="F158">
+        <v>-1.583438331486749</v>
+      </c>
+      <c r="G158">
+        <v>-0.7267643379265127</v>
+      </c>
+      <c r="H158">
+        <v>-0.1249568346569048</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>59200</v>
+      </c>
+      <c r="C159">
+        <v>-16008.68464919009</v>
+      </c>
+      <c r="D159">
+        <v>62320.43450666116</v>
+      </c>
+      <c r="E159">
+        <v>13324.62908366855</v>
+      </c>
+      <c r="F159">
+        <v>-1.712463933025826</v>
+      </c>
+      <c r="G159">
+        <v>-0.3170846793157597</v>
+      </c>
+      <c r="H159">
+        <v>-0.03598835533198579</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>59201.00000000001</v>
+      </c>
+      <c r="C160">
+        <v>-7936.030388770951</v>
+      </c>
+      <c r="D160">
+        <v>62797.35782856698</v>
+      </c>
+      <c r="E160">
+        <v>13272.71291559257</v>
+      </c>
+      <c r="F160">
+        <v>-1.79256971736185</v>
+      </c>
+      <c r="G160">
+        <v>0.1105611020667394</v>
+      </c>
+      <c r="H160">
+        <v>0.05581274416012703</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>59202</v>
+      </c>
+      <c r="C161">
+        <v>400.1299102923551</v>
+      </c>
+      <c r="D161">
+        <v>61168.47830039982</v>
+      </c>
+      <c r="E161">
+        <v>12766.63308094502</v>
+      </c>
+      <c r="F161">
+        <v>-1.820521166005706</v>
+      </c>
+      <c r="G161">
+        <v>0.5671392469240597</v>
+      </c>
+      <c r="H161">
+        <v>0.1525631453002649</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>59203</v>
+      </c>
+      <c r="C162">
+        <v>8738.253338421568</v>
+      </c>
+      <c r="D162">
+        <v>57264.01603782058</v>
+      </c>
+      <c r="E162">
+        <v>11777.54433824233</v>
+      </c>
+      <c r="F162">
+        <v>-1.783975587136875</v>
+      </c>
+      <c r="G162">
+        <v>1.066861051188046</v>
+      </c>
+      <c r="H162">
+        <v>0.256876708224111</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>59204</v>
+      </c>
+      <c r="C163">
+        <v>16723.57678643959</v>
+      </c>
+      <c r="D163">
+        <v>50830.9659889987</v>
+      </c>
+      <c r="E163">
+        <v>10261.78501095708</v>
+      </c>
+      <c r="F163">
+        <v>-1.655325697247523</v>
+      </c>
+      <c r="G163">
+        <v>1.628414971685705</v>
+      </c>
+      <c r="H163">
+        <v>0.3719723543236489</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>59205</v>
+      </c>
+      <c r="C164">
+        <v>23802.46397218191</v>
+      </c>
+      <c r="D164">
+        <v>41508.59407799229</v>
+      </c>
+      <c r="E164">
+        <v>8158.078132076227</v>
+      </c>
+      <c r="F164">
+        <v>-1.375965149595633</v>
+      </c>
+      <c r="G164">
+        <v>2.275129121750004</v>
+      </c>
+      <c r="H164">
+        <v>0.5013436897483393</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>59206</v>
+      </c>
+      <c r="C165">
+        <v>28987.35745133778</v>
+      </c>
+      <c r="D165">
+        <v>28818.27808118282</v>
+      </c>
+      <c r="E165">
+        <v>5390.828641214202</v>
+      </c>
+      <c r="F165">
+        <v>-0.8145906961724367</v>
+      </c>
+      <c r="G165">
+        <v>3.024874683241488</v>
+      </c>
+      <c r="H165">
+        <v>0.645709724903895</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>59207</v>
+      </c>
+      <c r="C166">
+        <v>30268.1778231843</v>
+      </c>
+      <c r="D166">
+        <v>12318.22465770949</v>
+      </c>
+      <c r="E166">
+        <v>1915.975935022752</v>
+      </c>
+      <c r="F166">
+        <v>0.3454932085151103</v>
+      </c>
+      <c r="G166">
+        <v>3.809280980677547</v>
+      </c>
+      <c r="H166">
+        <v>0.7836634929994591</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>59208</v>
+      </c>
+      <c r="C167">
+        <v>23267.43578007063</v>
+      </c>
+      <c r="D167">
+        <v>-7050.65692606226</v>
+      </c>
+      <c r="E167">
+        <v>-1967.837810815781</v>
+      </c>
+      <c r="F167">
+        <v>2.735836353414576</v>
+      </c>
+      <c r="G167">
+        <v>3.938506181011558</v>
+      </c>
+      <c r="H167">
+        <v>0.7574176605330237</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>59209</v>
+      </c>
+      <c r="C168">
+        <v>2848.711550035374</v>
+      </c>
+      <c r="D168">
+        <v>-20796.48679055733</v>
+      </c>
+      <c r="E168">
+        <v>-4371.523180836249</v>
+      </c>
+      <c r="F168">
+        <v>5.17308554020605</v>
+      </c>
+      <c r="G168">
+        <v>1.136057097058421</v>
+      </c>
+      <c r="H168">
+        <v>0.1199781999424103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>59210</v>
+      </c>
+      <c r="C169">
+        <v>-20639.08992011225</v>
+      </c>
+      <c r="D169">
+        <v>-17805.06131202886</v>
+      </c>
+      <c r="E169">
+        <v>-3212.043844726549</v>
+      </c>
+      <c r="F169">
+        <v>4.00668921473323</v>
+      </c>
+      <c r="G169">
+        <v>-1.908001873474533</v>
+      </c>
+      <c r="H169">
+        <v>-0.4865809635952634</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>59211</v>
+      </c>
+      <c r="C170">
+        <v>-35801.97532004202</v>
+      </c>
+      <c r="D170">
+        <v>-5976.167061716671</v>
+      </c>
+      <c r="E170">
+        <v>-394.7944292634936</v>
+      </c>
+      <c r="F170">
+        <v>2.261554822272948</v>
+      </c>
+      <c r="G170">
+        <v>-2.712514305016604</v>
+      </c>
+      <c r="H170">
+        <v>-0.6138705559937818</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>59212</v>
+      </c>
+      <c r="C171">
+        <v>-43855.94668293931</v>
+      </c>
+      <c r="D171">
+        <v>7308.084146344608</v>
+      </c>
+      <c r="E171">
+        <v>2565.078919476005</v>
+      </c>
+      <c r="F171">
+        <v>1.076842555052726</v>
+      </c>
+      <c r="G171">
+        <v>-2.700155139915768</v>
+      </c>
+      <c r="H171">
+        <v>-0.5835478457914671</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>59213</v>
+      </c>
+      <c r="C172">
+        <v>-47209.51477151959</v>
+      </c>
+      <c r="D172">
+        <v>19797.24706282036</v>
+      </c>
+      <c r="E172">
+        <v>5248.78455321713</v>
+      </c>
+      <c r="F172">
+        <v>0.2808523766579903</v>
+      </c>
+      <c r="G172">
+        <v>-2.457953459841104</v>
+      </c>
+      <c r="H172">
+        <v>-0.5139693101854266</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>59214</v>
+      </c>
+      <c r="C173">
+        <v>-47350.2047864937</v>
+      </c>
+      <c r="D173">
+        <v>30855.17696826575</v>
+      </c>
+      <c r="E173">
+        <v>7553.961050266183</v>
+      </c>
+      <c r="F173">
+        <v>-0.2848594700089885</v>
+      </c>
+      <c r="G173">
+        <v>-2.146386745605316</v>
+      </c>
+      <c r="H173">
+        <v>-0.4350495897270099</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>59215</v>
+      </c>
+      <c r="C174">
+        <v>-45168.02858745882</v>
+      </c>
+      <c r="D174">
+        <v>40297.94326927383</v>
+      </c>
+      <c r="E174">
+        <v>9460.016219425584</v>
+      </c>
+      <c r="F174">
+        <v>-0.7077945326281879</v>
+      </c>
+      <c r="G174">
+        <v>-1.812145904404586</v>
+      </c>
+      <c r="H174">
+        <v>-0.3546301937257362</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>59216</v>
+      </c>
+      <c r="C175">
+        <v>-41224.44588631671</v>
+      </c>
+      <c r="D175">
+        <v>48073.4993355377</v>
+      </c>
+      <c r="E175">
+        <v>10967.70877863701</v>
+      </c>
+      <c r="F175">
+        <v>-1.036131840868575</v>
+      </c>
+      <c r="G175">
+        <v>-1.468071420354761</v>
+      </c>
+      <c r="H175">
+        <v>-0.2743929810221994</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>59217</v>
+      </c>
+      <c r="C176">
+        <v>-35896.7210867069</v>
+      </c>
+      <c r="D176">
+        <v>54158.22262595503</v>
+      </c>
+      <c r="E176">
+        <v>12080.94638002867</v>
+      </c>
+      <c r="F176">
+        <v>-1.29726613136584</v>
+      </c>
+      <c r="G176">
+        <v>-1.115153856548456</v>
+      </c>
+      <c r="H176">
+        <v>-0.1940133610699991</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>59218</v>
+      </c>
+      <c r="C177">
+        <v>-29458.04912456072</v>
+      </c>
+      <c r="D177">
+        <v>58516.6469717145</v>
+      </c>
+      <c r="E177">
+        <v>12800.0212789899</v>
+      </c>
+      <c r="F177">
+        <v>-1.506717424034135</v>
+      </c>
+      <c r="G177">
+        <v>-0.7493852384006416</v>
+      </c>
+      <c r="H177">
+        <v>-0.1123882042162045</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>59219</v>
+      </c>
+      <c r="C178">
+        <v>-22126.64873939636</v>
+      </c>
+      <c r="D178">
+        <v>61082.31804634211</v>
+      </c>
+      <c r="E178">
+        <v>13118.35717752266</v>
+      </c>
+      <c r="F178">
+        <v>-1.672272884514825</v>
+      </c>
+      <c r="G178">
+        <v>-0.3638763916446768</v>
+      </c>
+      <c r="H178">
+        <v>-0.02799190724621874</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>59220</v>
+      </c>
+      <c r="C179">
+        <v>-14099.81974693939</v>
+      </c>
+      <c r="D179">
+        <v>61744.97448058073</v>
+      </c>
+      <c r="E179">
+        <v>13020.20338241022</v>
+      </c>
+      <c r="F179">
+        <v>-1.795575251033325</v>
+      </c>
+      <c r="G179">
+        <v>0.05093463782856143</v>
+      </c>
+      <c r="H179">
+        <v>0.0611037110171075</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>59221</v>
+      </c>
+      <c r="C180">
+        <v>-5582.830942598185</v>
+      </c>
+      <c r="D180">
+        <v>60336.33896103536</v>
+      </c>
+      <c r="E180">
+        <v>12478.12687423645</v>
+      </c>
+      <c r="F180">
+        <v>-1.871736106142517</v>
+      </c>
+      <c r="G180">
+        <v>0.508207233960019</v>
+      </c>
+      <c r="H180">
+        <v>0.1573842272157464</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>59222</v>
+      </c>
+      <c r="C181">
+        <v>3175.979538240232</v>
+      </c>
+      <c r="D181">
+        <v>56608.3609412673</v>
+      </c>
+      <c r="E181">
+        <v>11449.57003475424</v>
+      </c>
+      <c r="F181">
+        <v>-1.886201763494651</v>
+      </c>
+      <c r="G181">
+        <v>1.026705659375382</v>
+      </c>
+      <c r="H181">
+        <v>0.2641769058847931</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>59223</v>
+      </c>
+      <c r="C182">
+        <v>11822.93369963413</v>
+      </c>
+      <c r="D182">
+        <v>50197.31367037325</v>
+      </c>
+      <c r="E182">
+        <v>9871.844135581769</v>
+      </c>
+      <c r="F182">
+        <v>-1.805810930262323</v>
+      </c>
+      <c r="G182">
+        <v>1.634047138408128</v>
+      </c>
+      <c r="H182">
+        <v>0.3860002812729981</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>59224</v>
+      </c>
+      <c r="C183">
+        <v>19760.17661024464</v>
+      </c>
+      <c r="D183">
+        <v>40568.52156911436</v>
+      </c>
+      <c r="E183">
+        <v>7655.976635119624</v>
+      </c>
+      <c r="F183">
+        <v>-1.55438426547951</v>
+      </c>
+      <c r="G183">
+        <v>2.369976089517683</v>
+      </c>
+      <c r="H183">
+        <v>0.5284265440354549</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>59225</v>
+      </c>
+      <c r="C184">
+        <v>25788.76813356103</v>
+      </c>
+      <c r="D184">
+        <v>26964.31221231412</v>
+      </c>
+      <c r="E184">
+        <v>4688.400538248921</v>
+      </c>
+      <c r="F184">
+        <v>-0.9403868889342955</v>
+      </c>
+      <c r="G184">
+        <v>3.274940397475559</v>
+      </c>
+      <c r="H184">
+        <v>0.6934275667498392</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>59226</v>
+      </c>
+      <c r="C185">
+        <v>27089.46305504965</v>
+      </c>
+      <c r="D185">
+        <v>8643.581466503241</v>
+      </c>
+      <c r="E185">
+        <v>913.2403910231262</v>
+      </c>
+      <c r="F185">
+        <v>0.5594249345231052</v>
+      </c>
+      <c r="G185">
+        <v>4.229682582876013</v>
+      </c>
+      <c r="H185">
+        <v>0.8398733965231532</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>59227</v>
+      </c>
+      <c r="C186">
+        <v>17089.65757680159</v>
+      </c>
+      <c r="D186">
+        <v>-12167.81157279728</v>
+      </c>
+      <c r="E186">
+        <v>-2999.502285702866</v>
+      </c>
+      <c r="F186">
+        <v>3.738475337593794</v>
+      </c>
+      <c r="G186">
+        <v>3.756813967138883</v>
+      </c>
+      <c r="H186">
+        <v>0.6423649366662018</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>59228</v>
+      </c>
+      <c r="C187">
+        <v>-6510.627944207735</v>
+      </c>
+      <c r="D187">
+        <v>-21709.53979296136</v>
+      </c>
+      <c r="E187">
+        <v>-4175.882656731591</v>
+      </c>
+      <c r="F187">
+        <v>5.044575345801566</v>
+      </c>
+      <c r="G187">
+        <v>-0.02238454854578467</v>
+      </c>
+      <c r="H187">
+        <v>-0.1661133410955143</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>59229</v>
+      </c>
+      <c r="C188">
+        <v>-27414.12790033385</v>
+      </c>
+      <c r="D188">
+        <v>-15659.80323935905</v>
+      </c>
+      <c r="E188">
+        <v>-2265.616631317824</v>
+      </c>
+      <c r="F188">
+        <v>3.400580723967566</v>
+      </c>
+      <c r="G188">
+        <v>-2.057311967736632</v>
+      </c>
+      <c r="H188">
+        <v>-0.5255425094231877</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>59230</v>
+      </c>
+      <c r="C189">
+        <v>-40401.7138031682</v>
+      </c>
+      <c r="D189">
+        <v>-4351.575737147189</v>
+      </c>
+      <c r="E189">
+        <v>457.6529150164528</v>
+      </c>
+      <c r="F189">
+        <v>1.982563039918982</v>
+      </c>
+      <c r="G189">
+        <v>-2.500646818477181</v>
+      </c>
+      <c r="H189">
+        <v>-0.5689897053912552</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>59231</v>
+      </c>
+      <c r="C190">
+        <v>-47664.76909739738</v>
+      </c>
+      <c r="D190">
+        <v>7635.329328726063</v>
+      </c>
+      <c r="E190">
+        <v>3129.630953728924</v>
+      </c>
+      <c r="F190">
+        <v>1.013166468903449</v>
+      </c>
+      <c r="G190">
+        <v>-2.463179862831649</v>
+      </c>
+      <c r="H190">
+        <v>-0.5291937205033376</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>59232</v>
+      </c>
+      <c r="C191">
+        <v>-50985.68690777583</v>
+      </c>
+      <c r="D191">
+        <v>18942.25691100832</v>
+      </c>
+      <c r="E191">
+        <v>5529.674785343621</v>
+      </c>
+      <c r="F191">
+        <v>0.321777439254439</v>
+      </c>
+      <c r="G191">
+        <v>-2.270853867801914</v>
+      </c>
+      <c r="H191">
+        <v>-0.4669201719451676</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>59233</v>
+      </c>
+      <c r="C192">
+        <v>-51435.41482344188</v>
+      </c>
+      <c r="D192">
+        <v>29117.50107590926</v>
+      </c>
+      <c r="E192">
+        <v>7599.965240215239</v>
+      </c>
+      <c r="F192">
+        <v>-0.200348328800942</v>
+      </c>
+      <c r="G192">
+        <v>-2.019321573837541</v>
+      </c>
+      <c r="H192">
+        <v>-0.3981429669768659</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>59234</v>
+      </c>
+      <c r="C193">
+        <v>-49676.65940953496</v>
+      </c>
+      <c r="D193">
+        <v>37982.31334961444</v>
+      </c>
+      <c r="E193">
+        <v>9325.764912575494</v>
+      </c>
+      <c r="F193">
+        <v>-0.6133062650533431</v>
+      </c>
+      <c r="G193">
+        <v>-1.739480380576195</v>
+      </c>
+      <c r="H193">
+        <v>-0.3272338236168545</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>59235</v>
+      </c>
+      <c r="C194">
+        <v>-46145.28625263716</v>
+      </c>
+      <c r="D194">
+        <v>45442.31373017086</v>
+      </c>
+      <c r="E194">
+        <v>10702.52577460048</v>
+      </c>
+      <c r="F194">
+        <v>-0.9512972844912054</v>
+      </c>
+      <c r="G194">
+        <v>-1.44067543497198</v>
+      </c>
+      <c r="H194">
+        <v>-0.2550128105725235</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>59236</v>
+      </c>
+      <c r="C195">
+        <v>-41146.29386917709</v>
+      </c>
+      <c r="D195">
+        <v>51420.8671168032</v>
+      </c>
+      <c r="E195">
+        <v>11725.21418974987</v>
+      </c>
+      <c r="F195">
+        <v>-1.234451316931586</v>
+      </c>
+      <c r="G195">
+        <v>-1.123590872249028</v>
+      </c>
+      <c r="H195">
+        <v>-0.1809954162111588</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>59237</v>
+      </c>
+      <c r="C196">
+        <v>-34907.3312706975</v>
+      </c>
+      <c r="D196">
+        <v>55829.93447403154</v>
+      </c>
+      <c r="E196">
+        <v>12384.02108668355</v>
+      </c>
+      <c r="F196">
+        <v>-1.474516419026261</v>
+      </c>
+      <c r="G196">
+        <v>-0.7843877565028328</v>
+      </c>
+      <c r="H196">
+        <v>-0.1040604100690052</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>59238</v>
+      </c>
+      <c r="C197">
+        <v>-27612.05485431292</v>
+      </c>
+      <c r="D197">
+        <v>58552.09978506107</v>
+      </c>
+      <c r="E197">
+        <v>12661.82768379594</v>
+      </c>
+      <c r="F197">
+        <v>-1.677398288100043</v>
+      </c>
+      <c r="G197">
+        <v>-0.4157438370684899</v>
+      </c>
+      <c r="H197">
+        <v>-0.02259299867647665</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>59239</v>
+      </c>
+      <c r="C198">
+        <v>-19425.58392185602</v>
+      </c>
+      <c r="D198">
+        <v>59423.21272872918</v>
+      </c>
+      <c r="E198">
+        <v>12531.71054865101</v>
+      </c>
+      <c r="F198">
+        <v>-1.843713892230999</v>
+      </c>
+      <c r="G198">
+        <v>-0.006365893070938224</v>
+      </c>
+      <c r="H198">
+        <v>0.06561205710328391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>59240</v>
+      </c>
+      <c r="C199">
+        <v>-10521.6252703968</v>
+      </c>
+      <c r="D199">
+        <v>58208.9142268558</v>
+      </c>
+      <c r="E199">
+        <v>11953.49526785568</v>
+      </c>
+      <c r="F199">
+        <v>-1.96732360609245</v>
+      </c>
+      <c r="G199">
+        <v>0.4607798731084258</v>
+      </c>
+      <c r="H199">
+        <v>0.1636292246555851</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>59241</v>
+      </c>
+      <c r="C200">
+        <v>-1124.609552540245</v>
+      </c>
+      <c r="D200">
+        <v>54567.70558972516</v>
+      </c>
+      <c r="E200">
+        <v>10868.42077319865</v>
+      </c>
+      <c r="F200">
+        <v>-2.030284264203062</v>
+      </c>
+      <c r="G200">
+        <v>1.011923526867336</v>
+      </c>
+      <c r="H200">
+        <v>0.2758753918955307</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>59242</v>
+      </c>
+      <c r="C201">
+        <v>8403.930650017895</v>
+      </c>
+      <c r="D201">
+        <v>47990.38209870586</v>
+      </c>
+      <c r="E201">
+        <v>9191.033917660479</v>
+      </c>
+      <c r="F201">
+        <v>-1.988869864432534</v>
+      </c>
+      <c r="G201">
+        <v>1.68835815632445</v>
+      </c>
+      <c r="H201">
+        <v>0.4087065843290236</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>59243</v>
+      </c>
+      <c r="C202">
+        <v>17353.86213169514</v>
+      </c>
+      <c r="D202">
+        <v>37705.95748751825</v>
+      </c>
+      <c r="E202">
+        <v>6799.417083104525</v>
+      </c>
+      <c r="F202">
+        <v>-1.732598726079988</v>
+      </c>
+      <c r="G202">
+        <v>2.552900549452854</v>
+      </c>
+      <c r="H202">
+        <v>0.5700807854627404</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>59244</v>
+      </c>
+      <c r="C203">
+        <v>24068.78830905499</v>
+      </c>
+      <c r="D203">
+        <v>22604.70679997686</v>
+      </c>
+      <c r="E203">
+        <v>3543.633289293144</v>
+      </c>
+      <c r="F203">
+        <v>-0.9510228679649929</v>
+      </c>
+      <c r="G203">
+        <v>3.662321357116228</v>
+      </c>
+      <c r="H203">
+        <v>0.7589275394216739</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>59245</v>
+      </c>
+      <c r="C204">
+        <v>24152.45721051279</v>
+      </c>
+      <c r="D204">
+        <v>1936.775012808534</v>
+      </c>
+      <c r="E204">
+        <v>-546.7375926486668</v>
+      </c>
+      <c r="F204">
+        <v>1.226092509649623</v>
+      </c>
+      <c r="G204">
+        <v>4.639337871639164</v>
+      </c>
+      <c r="H204">
+        <v>0.8667650063527341</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>59246</v>
+      </c>
+      <c r="C205">
+        <v>9229.664940248935</v>
+      </c>
+      <c r="D205">
+        <v>-18090.40151428761</v>
+      </c>
+      <c r="E205">
+        <v>-3915.150233873665</v>
+      </c>
+      <c r="F205">
+        <v>4.662989865752363</v>
+      </c>
+      <c r="G205">
+        <v>2.748778317699228</v>
+      </c>
+      <c r="H205">
+        <v>0.359836982540981</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>59247</v>
+      </c>
+      <c r="C206">
+        <v>-14497.82678721516</v>
+      </c>
+      <c r="D206">
+        <v>-22367.53196497714</v>
+      </c>
+      <c r="E206">
+        <v>-3826.125671915678</v>
+      </c>
+      <c r="F206">
+        <v>4.463751365594915</v>
+      </c>
+      <c r="G206">
+        <v>-0.68598822834485</v>
+      </c>
+      <c r="H206">
+        <v>-0.3090930350659989</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>59248</v>
+      </c>
+      <c r="C207">
+        <v>-32575.36120242918</v>
+      </c>
+      <c r="D207">
+        <v>-15439.52258024221</v>
+      </c>
+      <c r="E207">
+        <v>-1747.335932580046</v>
+      </c>
+      <c r="F207">
+        <v>2.981345115501399</v>
+      </c>
+      <c r="G207">
+        <v>-1.959294590612372</v>
+      </c>
+      <c r="H207">
+        <v>-0.5015627850731884</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>59249</v>
+      </c>
+      <c r="C208">
+        <v>-44178.7009185939</v>
+      </c>
+      <c r="D208">
+        <v>-5159.361228304671</v>
+      </c>
+      <c r="E208">
+        <v>737.3325589669923</v>
+      </c>
+      <c r="F208">
+        <v>1.837875468043063</v>
+      </c>
+      <c r="G208">
+        <v>-2.273361985056793</v>
+      </c>
+      <c r="H208">
+        <v>-0.5181560222004383</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>59250</v>
+      </c>
+      <c r="C209">
+        <v>-51074.96738273325</v>
+      </c>
+      <c r="D209">
+        <v>5674.318917825835</v>
+      </c>
+      <c r="E209">
+        <v>3144.032561812987</v>
+      </c>
+      <c r="F209">
+        <v>1.007976151325052</v>
+      </c>
+      <c r="G209">
+        <v>-2.265087588791904</v>
+      </c>
+      <c r="H209">
+        <v>-0.4834574514742305</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>59251</v>
+      </c>
+      <c r="C210">
+        <v>-54509.00313764911</v>
+      </c>
+      <c r="D210">
+        <v>16076.63703467292</v>
+      </c>
+      <c r="E210">
+        <v>5326.522421697563</v>
+      </c>
+      <c r="F210">
+        <v>0.3777348373261407</v>
+      </c>
+      <c r="G210">
+        <v>-2.129763207843979</v>
+      </c>
+      <c r="H210">
+        <v>-0.4315166632305303</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>59252</v>
+      </c>
+      <c r="C211">
+        <v>-55264.49506646415</v>
+      </c>
+      <c r="D211">
+        <v>25633.61061048541</v>
+      </c>
+      <c r="E211">
+        <v>7233.052807985633</v>
+      </c>
+      <c r="F211">
+        <v>-0.124284207557245</v>
+      </c>
+      <c r="G211">
+        <v>-1.933989097071763</v>
+      </c>
+      <c r="H211">
+        <v>-0.3726814265640701</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>59253</v>
+      </c>
+      <c r="C212">
+        <v>-53850.56246407193</v>
+      </c>
+      <c r="D212">
+        <v>34133.79795980883</v>
+      </c>
+      <c r="E212">
+        <v>8841.12286715992</v>
+      </c>
+      <c r="F212">
+        <v>-0.5401582313069173</v>
+      </c>
+      <c r="G212">
+        <v>-1.702458678298682</v>
+      </c>
+      <c r="H212">
+        <v>-0.3101991761852094</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>59254</v>
+      </c>
+      <c r="C213">
+        <v>-50611.83357520113</v>
+      </c>
+      <c r="D213">
+        <v>41440.42999821595</v>
+      </c>
+      <c r="E213">
+        <v>10136.84053800404</v>
+      </c>
+      <c r="F213">
+        <v>-0.8954460420607544</v>
+      </c>
+      <c r="G213">
+        <v>-1.443511054495741</v>
+      </c>
+      <c r="H213">
+        <v>-0.2447546584472073</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>59255</v>
+      </c>
+      <c r="C214">
+        <v>-45790.47293323065</v>
+      </c>
+      <c r="D214">
+        <v>47436.51206160418</v>
+      </c>
+      <c r="E214">
+        <v>11106.78306293488</v>
+      </c>
+      <c r="F214">
+        <v>-1.206042936929177</v>
+      </c>
+      <c r="G214">
+        <v>-1.157604722266896</v>
+      </c>
+      <c r="H214">
+        <v>-0.1758715380172623</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>59256</v>
+      </c>
+      <c r="C215">
+        <v>-39564.56964112736</v>
+      </c>
+      <c r="D215">
+        <v>51993.8868596434</v>
+      </c>
+      <c r="E215">
+        <v>11733.55040786118</v>
+      </c>
+      <c r="F215">
+        <v>-1.481507125422989</v>
+      </c>
+      <c r="G215">
+        <v>-0.840162213653682</v>
+      </c>
+      <c r="H215">
+        <v>-0.1023413702865925</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>59257</v>
+      </c>
+      <c r="C216">
+        <v>-32076.18790402448</v>
+      </c>
+      <c r="D216">
+        <v>54949.51007262991</v>
+      </c>
+      <c r="E216">
+        <v>11992.24044248265</v>
+      </c>
+      <c r="F216">
+        <v>-1.726321963434521</v>
+      </c>
+      <c r="G216">
+        <v>-0.4820704996322071</v>
+      </c>
+      <c r="H216">
+        <v>-0.02227559851473091</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>59258</v>
+      </c>
+      <c r="C217">
+        <v>-23457.40190682082</v>
+      </c>
+      <c r="D217">
+        <v>56081.10082245307</v>
+      </c>
+      <c r="E217">
+        <v>11846.73944343009</v>
+      </c>
+      <c r="F217">
+        <v>-1.939476007216457</v>
+      </c>
+      <c r="G217">
+        <v>-0.06868859642786031</v>
+      </c>
+      <c r="H217">
+        <v>0.06706355902027177</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>59259</v>
+      </c>
+      <c r="C218">
+        <v>-13862.5171851952</v>
+      </c>
+      <c r="D218">
+        <v>55071.34272282442</v>
+      </c>
+      <c r="E218">
+        <v>11243.71924487444</v>
+      </c>
+      <c r="F218">
+        <v>-2.111803586077284</v>
+      </c>
+      <c r="G218">
+        <v>0.4228588005845129</v>
+      </c>
+      <c r="H218">
+        <v>0.1696834313140856</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>59260</v>
+      </c>
+      <c r="C219">
+        <v>-3524.548100700405</v>
+      </c>
+      <c r="D219">
+        <v>51453.45474412051</v>
+      </c>
+      <c r="E219">
+        <v>10104.11109189566</v>
+      </c>
+      <c r="F219">
+        <v>-2.21806660477285</v>
+      </c>
+      <c r="G219">
+        <v>1.028952257181642</v>
+      </c>
+      <c r="H219">
+        <v>0.291538223981151</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>59261</v>
+      </c>
+      <c r="C220">
+        <v>7118.12376561331</v>
+      </c>
+      <c r="D220">
+        <v>44525.30374766091</v>
+      </c>
+      <c r="E220">
+        <v>8311.934025579529</v>
+      </c>
+      <c r="F220">
+        <v>-2.194145734989406</v>
+      </c>
+      <c r="G220">
+        <v>1.808359295518906</v>
+      </c>
+      <c r="H220">
+        <v>0.4412681429214853</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>59262</v>
+      </c>
+      <c r="C221">
+        <v>17089.02320382352</v>
+      </c>
+      <c r="D221">
+        <v>33215.58792701783</v>
+      </c>
+      <c r="E221">
+        <v>5702.473708006723</v>
+      </c>
+      <c r="F221">
+        <v>-1.865511071100979</v>
+      </c>
+      <c r="G221">
+        <v>2.848188605810482</v>
+      </c>
+      <c r="H221">
+        <v>0.6283296174280234</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>59263</v>
+      </c>
+      <c r="C222">
+        <v>23853.02218239861</v>
+      </c>
+      <c r="D222">
+        <v>16076.88863536037</v>
+      </c>
+      <c r="E222">
+        <v>2104.114434229806</v>
+      </c>
+      <c r="F222">
+        <v>-0.7099586683858916</v>
+      </c>
+      <c r="G222">
+        <v>4.162803459137296</v>
+      </c>
+      <c r="H222">
+        <v>0.8334713230350378</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>59264</v>
+      </c>
+      <c r="C223">
+        <v>20684.57648383751</v>
+      </c>
+      <c r="D223">
+        <v>-6505.265292025113</v>
+      </c>
+      <c r="E223">
+        <v>-2123.873185607337</v>
+      </c>
+      <c r="F223">
+        <v>2.356524518239159</v>
+      </c>
+      <c r="G223">
+        <v>4.614941094323036</v>
+      </c>
+      <c r="H223">
+        <v>0.7914117437359183</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>59265</v>
+      </c>
+      <c r="C224">
+        <v>1577.332670148753</v>
+      </c>
+      <c r="D224">
+        <v>-22767.02703795877</v>
+      </c>
+      <c r="E224">
+        <v>-4455.756758494332</v>
+      </c>
+      <c r="F224">
+        <v>4.760507826510617</v>
+      </c>
+      <c r="G224">
+        <v>1.581185925130878</v>
+      </c>
+      <c r="H224">
+        <v>0.1043149461813476</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>59266</v>
+      </c>
+      <c r="C225">
+        <v>-20258.15162368556</v>
+      </c>
+      <c r="D225">
+        <v>-23710.86301438223</v>
+      </c>
+      <c r="E225">
+        <v>-3712.789462710292</v>
+      </c>
+      <c r="F225">
+        <v>3.920779773927909</v>
+      </c>
+      <c r="G225">
+        <v>-0.8888801583546589</v>
+      </c>
+      <c r="H225">
+        <v>-0.336893429715203</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>59267</v>
+      </c>
+      <c r="C226">
+        <v>-36393.57634020844</v>
+      </c>
+      <c r="D226">
+        <v>-16940.6419002306</v>
+      </c>
+      <c r="E226">
+        <v>-1720.546016049108</v>
+      </c>
+      <c r="F226">
+        <v>2.703767961532981</v>
+      </c>
+      <c r="G226">
+        <v>-1.793320783313411</v>
+      </c>
+      <c r="H226">
+        <v>-0.4598325648346925</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>59268</v>
+      </c>
+      <c r="C227">
+        <v>-47213.06236787817</v>
+      </c>
+      <c r="D227">
+        <v>-7573.549225558012</v>
+      </c>
+      <c r="E227">
+        <v>547.9123652850986</v>
+      </c>
+      <c r="F227">
+        <v>1.744427133132504</v>
+      </c>
+      <c r="G227">
+        <v>-2.07473856311904</v>
+      </c>
+      <c r="H227">
+        <v>-0.4733086336843142</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>59269</v>
+      </c>
+      <c r="C228">
+        <v>-53940.35012839903</v>
+      </c>
+      <c r="D228">
+        <v>2438.903784612392</v>
+      </c>
+      <c r="E228">
+        <v>2766.132604960704</v>
+      </c>
+      <c r="F228">
+        <v>1.001951988963429</v>
+      </c>
+      <c r="G228">
+        <v>-2.10807668961502</v>
+      </c>
+      <c r="H228">
+        <v>-0.4479977474352136</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>59270</v>
+      </c>
+      <c r="C229">
+        <v>-57452.2716228271</v>
+      </c>
+      <c r="D229">
+        <v>12273.90640714874</v>
+      </c>
+      <c r="E229">
+        <v>4810.908210040359</v>
+      </c>
+      <c r="F229">
+        <v>0.4054668024852427</v>
+      </c>
+      <c r="G229">
+        <v>-2.025159364777753</v>
+      </c>
+      <c r="H229">
+        <v>-0.4063927628343593</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>59271</v>
+      </c>
+      <c r="C230">
+        <v>-58327.46208872917</v>
+      </c>
+      <c r="D230">
+        <v>21521.50185007665</v>
+      </c>
+      <c r="E230">
+        <v>6626.553617326771</v>
+      </c>
+      <c r="F230">
+        <v>-0.09321278489963099</v>
+      </c>
+      <c r="G230">
+        <v>-1.876980849585036</v>
+      </c>
+      <c r="H230">
+        <v>-0.3563483390128659</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>59272.00000000001</v>
+      </c>
+      <c r="C231">
+        <v>-56949.47812833683</v>
+      </c>
+      <c r="D231">
+        <v>29935.95127054021</v>
+      </c>
+      <c r="E231">
+        <v>8181.745657354631</v>
+      </c>
+      <c r="F231">
+        <v>-0.5244811755260012</v>
+      </c>
+      <c r="G231">
+        <v>-1.68397439562379</v>
+      </c>
+      <c r="H231">
+        <v>-0.3005950240319996</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>59273</v>
+      </c>
+      <c r="C232">
+        <v>-53581.44093392006</v>
+      </c>
+      <c r="D232">
+        <v>37334.00181736351</v>
+      </c>
+      <c r="E232">
+        <v>9453.511481578749</v>
+      </c>
+      <c r="F232">
+        <v>-0.9073790159844116</v>
+      </c>
+      <c r="G232">
+        <v>-1.45273821256491</v>
+      </c>
+      <c r="H232">
+        <v>-0.2396727296861502</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>59274</v>
+      </c>
+      <c r="C233">
+        <v>-48407.10587050506</v>
+      </c>
+      <c r="D233">
+        <v>43538.34326658138</v>
+      </c>
+      <c r="E233">
+        <v>10417.47750515386</v>
+      </c>
+      <c r="F233">
+        <v>-1.254631866355393</v>
+      </c>
+      <c r="G233">
+        <v>-1.18169441333942</v>
+      </c>
+      <c r="H233">
+        <v>-0.172746438076758</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>59275</v>
+      </c>
+      <c r="C234">
+        <v>-41564.09617775513</v>
+      </c>
+      <c r="D234">
+        <v>48341.48947060223</v>
+      </c>
+      <c r="E234">
+        <v>11041.59015293432</v>
+      </c>
+      <c r="F234">
+        <v>-1.573071725404008</v>
+      </c>
+      <c r="G234">
+        <v>-0.863554707446289</v>
+      </c>
+      <c r="H234">
+        <v>-0.09812756719590879</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>59276</v>
+      </c>
+      <c r="C235">
+        <v>-33172.20172552413</v>
+      </c>
+      <c r="D235">
+        <v>51475.70745351451</v>
+      </c>
+      <c r="E235">
+        <v>11280.81185881195</v>
+      </c>
+      <c r="F235">
+        <v>-1.864247244335562</v>
+      </c>
+      <c r="G235">
+        <v>-0.4848479958336978</v>
+      </c>
+      <c r="H235">
+        <v>-0.0131417623652201</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>59277</v>
+      </c>
+      <c r="C236">
+        <v>-23361.55638114618</v>
+      </c>
+      <c r="D236">
+        <v>52577.66452811183</v>
+      </c>
+      <c r="E236">
+        <v>11071.23693957618</v>
+      </c>
+      <c r="F236">
+        <v>-2.122667551861861</v>
+      </c>
+      <c r="G236">
+        <v>-0.02343273950813599</v>
+      </c>
+      <c r="H236">
+        <v>0.08625631880950847</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>59278</v>
+      </c>
+      <c r="C237">
+        <v>-12317.80351203637</v>
+      </c>
+      <c r="D237">
+        <v>51132.98449408838</v>
+      </c>
+      <c r="E237">
+        <v>10321.72967727088</v>
+      </c>
+      <c r="F237">
+        <v>-2.329483616867402</v>
+      </c>
+      <c r="G237">
+        <v>0.5570823620214262</v>
+      </c>
+      <c r="H237">
+        <v>0.2062579993330945</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>59279</v>
+      </c>
+      <c r="C238">
+        <v>-387.3776631239978</v>
+      </c>
+      <c r="D238">
+        <v>46378.05973202334</v>
+      </c>
+      <c r="E238">
+        <v>8900.268244869138</v>
+      </c>
+      <c r="F238">
+        <v>-2.433376510054945</v>
+      </c>
+      <c r="G238">
+        <v>1.317738835201943</v>
+      </c>
+      <c r="H238">
+        <v>0.3563610478587603</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>59280</v>
+      </c>
+      <c r="C239">
+        <v>11630.32633946473</v>
+      </c>
+      <c r="D239">
+        <v>37133.87806712268</v>
+      </c>
+      <c r="E239">
+        <v>6615.150737879268</v>
+      </c>
+      <c r="F239">
+        <v>-2.289698452935944</v>
+      </c>
+      <c r="G239">
+        <v>2.356881479221083</v>
+      </c>
+      <c r="H239">
+        <v>0.5491912144877586</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>59281</v>
+      </c>
+      <c r="C240">
+        <v>21571.86432249908</v>
+      </c>
+      <c r="D240">
+        <v>21668.23588877179</v>
+      </c>
+      <c r="E240">
+        <v>3227.757804620835</v>
+      </c>
+      <c r="F240">
+        <v>-1.454917708091259</v>
+      </c>
+      <c r="G240">
+        <v>3.755298604868138</v>
+      </c>
+      <c r="H240">
+        <v>0.7812263201550604</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>59282</v>
+      </c>
+      <c r="C241">
+        <v>23318.90758598246</v>
+      </c>
+      <c r="D241">
+        <v>-866.2444507868358</v>
+      </c>
+      <c r="E241">
+        <v>-1161.669819992274</v>
+      </c>
+      <c r="F241">
+        <v>1.161708440630738</v>
+      </c>
+      <c r="G241">
+        <v>4.787540734223045</v>
+      </c>
+      <c r="H241">
+        <v>0.8669474769914242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>59283</v>
+      </c>
+      <c r="C242">
+        <v>8473.583590318383</v>
+      </c>
+      <c r="D242">
+        <v>-21432.47896884503</v>
+      </c>
+      <c r="E242">
+        <v>-4463.825952479199</v>
+      </c>
+      <c r="F242">
+        <v>4.219391486993144</v>
+      </c>
+      <c r="G242">
+        <v>2.637184288794277</v>
+      </c>
+      <c r="H242">
+        <v>0.3245660282849172</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>59284</v>
+      </c>
+      <c r="C243">
+        <v>-13633.64819962299</v>
+      </c>
+      <c r="D243">
+        <v>-27370.74154704075</v>
+      </c>
+      <c r="E243">
+        <v>-4655.940650205081</v>
+      </c>
+      <c r="F243">
+        <v>4.078787028201932</v>
+      </c>
+      <c r="G243">
+        <v>-0.09440177026204769</v>
+      </c>
+      <c r="H243">
+        <v>-0.1921650638588133</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>59285</v>
+      </c>
+      <c r="C244">
+        <v>-31744.90573884324</v>
+      </c>
+      <c r="D244">
+        <v>-23491.15845345909</v>
+      </c>
+      <c r="E244">
+        <v>-3141.942208039404</v>
+      </c>
+      <c r="F244">
+        <v>3.021873734909422</v>
+      </c>
+      <c r="G244">
+        <v>-1.326126368187301</v>
+      </c>
+      <c r="H244">
+        <v>-0.3826085848214074</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>59286</v>
+      </c>
+      <c r="C245">
+        <v>-44644.88054452808</v>
+      </c>
+      <c r="D245">
+        <v>-15560.8460493177</v>
+      </c>
+      <c r="E245">
+        <v>-1077.780237814253</v>
+      </c>
+      <c r="F245">
+        <v>2.072085497373168</v>
+      </c>
+      <c r="G245">
+        <v>-1.814429678477146</v>
+      </c>
+      <c r="H245">
+        <v>-0.435434463341763</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>59287</v>
+      </c>
+      <c r="C246">
+        <v>-53192.53748865398</v>
+      </c>
+      <c r="D246">
+        <v>-6092.978675419611</v>
+      </c>
+      <c r="E246">
+        <v>1093.10577775284</v>
+      </c>
+      <c r="F246">
+        <v>1.298205129670352</v>
+      </c>
+      <c r="G246">
+        <v>-1.983381748357258</v>
+      </c>
+      <c r="H246">
+        <v>-0.434776756965116</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>59288.00000000001</v>
+      </c>
+      <c r="C247">
+        <v>-58176.63553045338</v>
+      </c>
+      <c r="D247">
+        <v>3788.620155575794</v>
+      </c>
+      <c r="E247">
+        <v>3190.6468033211</v>
+      </c>
+      <c r="F247">
+        <v>0.6557601370183822</v>
+      </c>
+      <c r="G247">
+        <v>-1.994828550595813</v>
+      </c>
+      <c r="H247">
+        <v>-0.40971447310098</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>59289</v>
+      </c>
+      <c r="C248">
+        <v>-60147.85229991583</v>
+      </c>
+      <c r="D248">
+        <v>13493.66641804413</v>
+      </c>
+      <c r="E248">
+        <v>5126.879777495897</v>
+      </c>
+      <c r="F248">
+        <v>0.1046890629322768</v>
+      </c>
+      <c r="G248">
+        <v>-1.914161755139579</v>
+      </c>
+      <c r="H248">
+        <v>-0.3710344406806094</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>59290.00000000001</v>
+      </c>
+      <c r="C249">
+        <v>-59483.03828053113</v>
+      </c>
+      <c r="D249">
+        <v>22647.41848818244</v>
+      </c>
+      <c r="E249">
+        <v>6847.43674817703</v>
+      </c>
+      <c r="F249">
+        <v>-0.3822436699469068</v>
+      </c>
+      <c r="G249">
+        <v>-1.768690594360411</v>
+      </c>
+      <c r="H249">
+        <v>-0.3227594562797449</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>59291</v>
+      </c>
+      <c r="C250">
+        <v>-56438.80784082977</v>
+      </c>
+      <c r="D250">
+        <v>30956.55901434474</v>
+      </c>
+      <c r="E250">
+        <v>8308.055081689658</v>
+      </c>
+      <c r="F250">
+        <v>-0.8238678342780997</v>
+      </c>
+      <c r="G250">
+        <v>-1.568017413833912</v>
+      </c>
+      <c r="H250">
+        <v>-0.2658988140108542</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>59292</v>
+      </c>
+      <c r="C251">
+        <v>-51193.01737793069</v>
+      </c>
+      <c r="D251">
+        <v>38141.52632419195</v>
+      </c>
+      <c r="E251">
+        <v>9463.291770563059</v>
+      </c>
+      <c r="F251">
+        <v>-1.232039495012699</v>
+      </c>
+      <c r="G251">
+        <v>-1.311532236012263</v>
+      </c>
+      <c r="H251">
+        <v>-0.1997927341628738</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>59293</v>
+      </c>
+      <c r="C252">
+        <v>-43875.91419740854</v>
+      </c>
+      <c r="D252">
+        <v>43890.80258816729</v>
+      </c>
+      <c r="E252">
+        <v>10259.04423901427</v>
+      </c>
+      <c r="F252">
+        <v>-1.61325712849967</v>
+      </c>
+      <c r="G252">
+        <v>-0.990388589362202</v>
+      </c>
+      <c r="H252">
+        <v>-0.1224307497016813</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>59294</v>
+      </c>
+      <c r="C253">
+        <v>-34598.73961261998</v>
+      </c>
+      <c r="D253">
+        <v>47816.12572464074</v>
+      </c>
+      <c r="E253">
+        <v>10625.21517201419</v>
+      </c>
+      <c r="F253">
+        <v>-1.967946230454509</v>
+      </c>
+      <c r="G253">
+        <v>-0.5863446067460676</v>
+      </c>
+      <c r="H253">
+        <v>-0.03025759198053318</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>59295</v>
+      </c>
+      <c r="C254">
+        <v>-23493.96443500283</v>
+      </c>
+      <c r="D254">
+        <v>49392.13340705759</v>
+      </c>
+      <c r="E254">
+        <v>10465.91959819452</v>
+      </c>
+      <c r="F254">
+        <v>-2.286299208228009</v>
+      </c>
+      <c r="G254">
+        <v>-0.06736172096131121</v>
+      </c>
+      <c r="H254">
+        <v>0.08250224421204969</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>59296</v>
+      </c>
+      <c r="C255">
+        <v>-10797.26623714525</v>
+      </c>
+      <c r="D255">
+        <v>47858.752209652</v>
+      </c>
+      <c r="E255">
+        <v>9644.30525035698</v>
+      </c>
+      <c r="F255">
+        <v>-2.535321498172281</v>
+      </c>
+      <c r="G255">
+        <v>0.6215790188110125</v>
+      </c>
+      <c r="H255">
+        <v>0.225075198261677</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>59297</v>
+      </c>
+      <c r="C256">
+        <v>2940.484936156669</v>
+      </c>
+      <c r="D256">
+        <v>42055.20906414974</v>
+      </c>
+      <c r="E256">
+        <v>7959.657279011858</v>
+      </c>
+      <c r="F256">
+        <v>-2.618435870162232</v>
+      </c>
+      <c r="G256">
+        <v>1.573224311084891</v>
+      </c>
+      <c r="H256">
+        <v>0.411300772136743</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>59298</v>
+      </c>
+      <c r="C257">
+        <v>16215.84144500322</v>
+      </c>
+      <c r="D257">
+        <v>30197.75222928872</v>
+      </c>
+      <c r="E257">
+        <v>5131.240720162746</v>
+      </c>
+      <c r="F257">
+        <v>-2.241224285861651</v>
+      </c>
+      <c r="G257">
+        <v>2.910311148038225</v>
+      </c>
+      <c r="H257">
+        <v>0.6525986644401276</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>59299</v>
+      </c>
+      <c r="C258">
+        <v>24625.06294717749</v>
+      </c>
+      <c r="D258">
+        <v>10300.45622814662</v>
+      </c>
+      <c r="E258">
+        <v>959.3692912017855</v>
+      </c>
+      <c r="F258">
+        <v>-0.5603961010097555</v>
+      </c>
+      <c r="G258">
+        <v>4.436425993452788</v>
+      </c>
+      <c r="H258">
+        <v>0.8763984181090966</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>59300</v>
+      </c>
+      <c r="C259">
+        <v>18822.84589327655</v>
+      </c>
+      <c r="D259">
+        <v>-14096.986002194</v>
+      </c>
+      <c r="E259">
+        <v>-3490.896083960897</v>
+      </c>
+      <c r="F259">
+        <v>2.803152807713292</v>
+      </c>
+      <c r="G259">
+        <v>4.020284162414302</v>
+      </c>
+      <c r="H259">
+        <v>0.6574452374501565</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>59301</v>
+      </c>
+      <c r="C260">
+        <v>-1025.402087356808</v>
+      </c>
+      <c r="D260">
+        <v>-28438.77092120404</v>
+      </c>
+      <c r="E260">
+        <v>-5431.918044330328</v>
+      </c>
+      <c r="F260">
+        <v>4.102764750565307</v>
+      </c>
+      <c r="G260">
+        <v>1.266534081500715</v>
+      </c>
+      <c r="H260">
+        <v>0.07449266837544367</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>59302</v>
+      </c>
+      <c r="C261">
+        <v>-21459.44025053219</v>
+      </c>
+      <c r="D261">
+        <v>-30006.28004491943</v>
+      </c>
+      <c r="E261">
+        <v>-4898.264008752943</v>
+      </c>
+      <c r="F261">
+        <v>3.463675043593232</v>
+      </c>
+      <c r="G261">
+        <v>-0.5427723434801682</v>
+      </c>
+      <c r="H261">
+        <v>-0.2469998139823948</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>59303</v>
+      </c>
+      <c r="C262">
+        <v>-37412.3323521447</v>
+      </c>
+      <c r="D262">
+        <v>-24812.49559533927</v>
+      </c>
+      <c r="E262">
+        <v>-3252.20983677012</v>
+      </c>
+      <c r="F262">
+        <v>2.560613361854796</v>
+      </c>
+      <c r="G262">
+        <v>-1.396426616121173</v>
+      </c>
+      <c r="H262">
+        <v>-0.3741728501536639</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>59304</v>
+      </c>
+      <c r="C263">
+        <v>-48770.4917291297</v>
+      </c>
+      <c r="D263">
+        <v>-16489.16693122574</v>
+      </c>
+      <c r="E263">
+        <v>-1192.675649399478</v>
+      </c>
+      <c r="F263">
+        <v>1.746999218530293</v>
+      </c>
+      <c r="G263">
+        <v>-1.78710684344824</v>
+      </c>
+      <c r="H263">
+        <v>-0.4162522178756859</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>59305</v>
+      </c>
+      <c r="C264">
+        <v>-56124.96750128123</v>
+      </c>
+      <c r="D264">
+        <v>-6777.140823204577</v>
+      </c>
+      <c r="E264">
+        <v>973.0502449720681</v>
+      </c>
+      <c r="F264">
+        <v>1.042914203607538</v>
+      </c>
+      <c r="G264">
+        <v>-1.943266278683649</v>
+      </c>
+      <c r="H264">
+        <v>-0.4179135886836975</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>59306</v>
+      </c>
+      <c r="C265">
+        <v>-59994.27117455305</v>
+      </c>
+      <c r="D265">
+        <v>3391.183482389505</v>
+      </c>
+      <c r="E265">
+        <v>3088.508920666484</v>
+      </c>
+      <c r="F265">
+        <v>0.425041236228152</v>
+      </c>
+      <c r="G265">
+        <v>-1.962412592471539</v>
+      </c>
+      <c r="H265">
+        <v>-0.3967808931334216</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>59307</v>
+      </c>
+      <c r="C266">
+        <v>-60757.11188461708</v>
+      </c>
+      <c r="D266">
+        <v>13428.16993234412</v>
+      </c>
+      <c r="E266">
+        <v>5056.300988927288</v>
+      </c>
+      <c r="F266">
+        <v>-0.1306204894544589</v>
+      </c>
+      <c r="G266">
+        <v>-1.887681643767145</v>
+      </c>
+      <c r="H266">
+        <v>-0.3601321898900138</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>59308</v>
+      </c>
+      <c r="C267">
+        <v>-58676.40399920834</v>
+      </c>
+      <c r="D267">
+        <v>22894.43248238493</v>
+      </c>
+      <c r="E267">
+        <v>6802.230955933143</v>
+      </c>
+      <c r="F267">
+        <v>-0.6418107216822376</v>
+      </c>
+      <c r="G267">
+        <v>-1.736598320836471</v>
+      </c>
+      <c r="H267">
+        <v>-0.310565794106723</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>59309</v>
+      </c>
+      <c r="C268">
+        <v>-53932.17006258098</v>
+      </c>
+      <c r="D268">
+        <v>31398.09664756482</v>
+      </c>
+      <c r="E268">
+        <v>8257.698046915903</v>
+      </c>
+      <c r="F268">
+        <v>-1.120858638071737</v>
+      </c>
+      <c r="G268">
+        <v>-1.511917694535035</v>
+      </c>
+      <c r="H268">
+        <v>-0.2480732060244016</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>59310</v>
+      </c>
+      <c r="C269">
+        <v>-46649.46712353786</v>
+      </c>
+      <c r="D269">
+        <v>38525.8046299921</v>
+      </c>
+      <c r="E269">
+        <v>9347.81427321408</v>
+      </c>
+      <c r="F269">
+        <v>-1.574818724087767</v>
+      </c>
+      <c r="G269">
+        <v>-1.204759441704295</v>
+      </c>
+      <c r="H269">
+        <v>-0.1706168524619067</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>59311.00000000001</v>
+      </c>
+      <c r="C270">
+        <v>-36931.15098671459</v>
+      </c>
+      <c r="D270">
+        <v>43775.71131035615</v>
+      </c>
+      <c r="E270">
+        <v>9979.734083144867</v>
+      </c>
+      <c r="F270">
+        <v>-2.003597552697342</v>
+      </c>
+      <c r="G270">
+        <v>-0.7933777952356849</v>
+      </c>
+      <c r="H270">
+        <v>-0.07394094680520544</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>59312</v>
+      </c>
+      <c r="C271">
+        <v>-24913.30061504665</v>
+      </c>
+      <c r="D271">
+        <v>46471.24296109236</v>
+      </c>
+      <c r="E271">
+        <v>10027.8427343264</v>
+      </c>
+      <c r="F271">
+        <v>-2.393372270731768</v>
+      </c>
+      <c r="G271">
+        <v>-0.2377916266602101</v>
+      </c>
+      <c r="H271">
+        <v>0.0492372634405036</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>59313.00000000001</v>
+      </c>
+      <c r="C272">
+        <v>-10888.24623008941</v>
+      </c>
+      <c r="D272">
+        <v>45630.65549370113</v>
+      </c>
+      <c r="E272">
+        <v>9312.752246235696</v>
+      </c>
+      <c r="F272">
+        <v>-2.697070251275517</v>
+      </c>
+      <c r="G272">
+        <v>0.5307269909527492</v>
+      </c>
+      <c r="H272">
+        <v>0.2105348003351873</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>59314</v>
+      </c>
+      <c r="C273">
+        <v>4371.468500183722</v>
+      </c>
+      <c r="D273">
+        <v>39771.04312683333</v>
+      </c>
+      <c r="E273">
+        <v>7575.128084731339</v>
+      </c>
+      <c r="F273">
+        <v>-2.774886557048997</v>
+      </c>
+      <c r="G273">
+        <v>1.620334480488536</v>
+      </c>
+      <c r="H273">
+        <v>0.4256934131219636</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>59315</v>
+      </c>
+      <c r="C274">
+        <v>18679.37462868913</v>
+      </c>
+      <c r="D274">
+        <v>26780.49838883387</v>
+      </c>
+      <c r="E274">
+        <v>4486.263330141613</v>
+      </c>
+      <c r="F274">
+        <v>-2.217481499225427</v>
+      </c>
+      <c r="G274">
+        <v>3.117021370883451</v>
+      </c>
+      <c r="H274">
+        <v>0.6957083776082252</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>59316</v>
+      </c>
+      <c r="C275">
+        <v>26185.60400143628</v>
+      </c>
+      <c r="D275">
+        <v>5284.32984496745</v>
+      </c>
+      <c r="E275">
+        <v>1.287188251560755</v>
+      </c>
+      <c r="F275">
+        <v>-0.1399348195722253</v>
+      </c>
+      <c r="G275">
+        <v>4.469984969422466</v>
+      </c>
+      <c r="H275">
+        <v>0.8788054568682755</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>59317</v>
+      </c>
+      <c r="C276">
+        <v>18421.4923976531</v>
+      </c>
+      <c r="D276">
+        <v>-18320.96656754291</v>
+      </c>
+      <c r="E276">
+        <v>-4307.212924227469</v>
+      </c>
+      <c r="F276">
+        <v>2.854545604027294</v>
+      </c>
+      <c r="G276">
+        <v>3.56553380867677</v>
+      </c>
+      <c r="H276">
+        <v>0.5856422969701732</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>59318</v>
+      </c>
+      <c r="C277">
+        <v>-698.9548053685194</v>
+      </c>
+      <c r="D277">
+        <v>-31479.76722597894</v>
+      </c>
+      <c r="E277">
+        <v>-6141.232062147022</v>
+      </c>
+      <c r="F277">
+        <v>3.781176965563176</v>
+      </c>
+      <c r="G277">
+        <v>1.217588112818265</v>
+      </c>
+      <c r="H277">
+        <v>0.09081282235025825</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>59319</v>
+      </c>
+      <c r="C278">
+        <v>-20184.20703714367</v>
+      </c>
+      <c r="D278">
+        <v>-33554.08866408999</v>
+      </c>
+      <c r="E278">
+        <v>-5799.342422856792</v>
+      </c>
+      <c r="F278">
+        <v>3.301357338856406</v>
+      </c>
+      <c r="G278">
+        <v>-0.3766440169283388</v>
+      </c>
+      <c r="H278">
+        <v>-0.20244371507888</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>59320</v>
+      </c>
+      <c r="C279">
+        <v>-35967.17512483951</v>
+      </c>
+      <c r="D279">
+        <v>-29150.08237442064</v>
+      </c>
+      <c r="E279">
+        <v>-4334.336595869439</v>
+      </c>
+      <c r="F279">
+        <v>2.536273219002139</v>
+      </c>
+      <c r="G279">
+        <v>-1.240888759605061</v>
+      </c>
+      <c r="H279">
+        <v>-0.3422534398837273</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>59321</v>
+      </c>
+      <c r="C280">
+        <v>-47565.34681471335</v>
+      </c>
+      <c r="D280">
+        <v>-21308.06293197341</v>
+      </c>
+      <c r="E280">
+        <v>-2355.469346032382</v>
+      </c>
+      <c r="F280">
+        <v>1.784454745836534</v>
+      </c>
+      <c r="G280">
+        <v>-1.696959510597447</v>
+      </c>
+      <c r="H280">
+        <v>-0.4029512044052835</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>59322</v>
+      </c>
+      <c r="C281">
+        <v>-55253.61967550457</v>
+      </c>
+      <c r="D281">
+        <v>-11695.13297559455</v>
+      </c>
+      <c r="E281">
+        <v>-175.9709561860307</v>
+      </c>
+      <c r="F281">
+        <v>1.094109023482496</v>
+      </c>
+      <c r="G281">
+        <v>-1.920400907300098</v>
+      </c>
+      <c r="H281">
+        <v>-0.4206033116793084</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>59323</v>
+      </c>
+      <c r="C282">
+        <v>-59370.08952488312</v>
+      </c>
+      <c r="D282">
+        <v>-1298.576960508235</v>
+      </c>
+      <c r="E282">
+        <v>2024.92652923361</v>
+      </c>
+      <c r="F282">
+        <v>0.4607144379471123</v>
+      </c>
+      <c r="G282">
+        <v>-1.995341587968183</v>
+      </c>
+      <c r="H282">
+        <v>-0.4113965005648871</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>59324</v>
+      </c>
+      <c r="C283">
+        <v>-60185.84905811427</v>
+      </c>
+      <c r="D283">
+        <v>9212.644957815688</v>
+      </c>
+      <c r="E283">
+        <v>4126.66490936249</v>
+      </c>
+      <c r="F283">
+        <v>-0.1287670263980228</v>
+      </c>
+      <c r="G283">
+        <v>-1.961052939400448</v>
+      </c>
+      <c r="H283">
+        <v>-0.3824416869171864</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>59325.00000000001</v>
+      </c>
+      <c r="C284">
+        <v>-57895.14177358455</v>
+      </c>
+      <c r="D284">
+        <v>19308.10789546269</v>
+      </c>
+      <c r="E284">
+        <v>6032.200194799715</v>
+      </c>
+      <c r="F284">
+        <v>-0.6862243074311359</v>
+      </c>
+      <c r="G284">
+        <v>-1.832847583323879</v>
+      </c>
+      <c r="H284">
+        <v>-0.3362213796827409</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>59326</v>
+      </c>
+      <c r="C285">
+        <v>-52630.92943938851</v>
+      </c>
+      <c r="D285">
+        <v>28491.63972871583</v>
+      </c>
+      <c r="E285">
+        <v>7648.542990110193</v>
+      </c>
+      <c r="F285">
+        <v>-1.219957222393392</v>
+      </c>
+      <c r="G285">
+        <v>-1.610248340722057</v>
+      </c>
+      <c r="H285">
+        <v>-0.2722618311517874</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>59327</v>
+      </c>
+      <c r="C286">
+        <v>-44489.90236484324</v>
+      </c>
+      <c r="D286">
+        <v>36221.14997877747</v>
+      </c>
+      <c r="E286">
+        <v>8872.206718721298</v>
+      </c>
+      <c r="F286">
+        <v>-1.732664534156586</v>
+      </c>
+      <c r="G286">
+        <v>-1.278683872257471</v>
+      </c>
+      <c r="H286">
+        <v>-0.1875138965010301</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>59328</v>
+      </c>
+      <c r="C287">
+        <v>-33575.673999307</v>
+      </c>
+      <c r="D287">
+        <v>41823.15819770492</v>
+      </c>
+      <c r="E287">
+        <v>9573.961181087538</v>
+      </c>
+      <c r="F287">
+        <v>-2.21645900435704</v>
+      </c>
+      <c r="G287">
+        <v>-0.8067704425260953</v>
+      </c>
+      <c r="H287">
+        <v>-0.07597353048698931</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>59329</v>
+      </c>
+      <c r="C288">
+        <v>-20092.88707468561</v>
+      </c>
+      <c r="D288">
+        <v>44379.23367982796</v>
+      </c>
+      <c r="E288">
+        <v>9579.378876601606</v>
+      </c>
+      <c r="F288">
+        <v>-2.639266771389607</v>
+      </c>
+      <c r="G288">
+        <v>-0.1396232229481755</v>
+      </c>
+      <c r="H288">
+        <v>0.0721794370683312</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>59330</v>
+      </c>
+      <c r="C289">
+        <v>-4576.606127636951</v>
+      </c>
+      <c r="D289">
+        <v>42571.20846519375</v>
+      </c>
+      <c r="E289">
+        <v>8645.379305848728</v>
+      </c>
+      <c r="F289">
+        <v>-2.907878828882264</v>
+      </c>
+      <c r="G289">
+        <v>0.8081120091591139</v>
+      </c>
+      <c r="H289">
+        <v>0.2706587885532546</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>59331</v>
+      </c>
+      <c r="C290">
+        <v>11527.56012714963</v>
+      </c>
+      <c r="D290">
+        <v>34553.99872211179</v>
+      </c>
+      <c r="E290">
+        <v>6454.688006336079</v>
+      </c>
+      <c r="F290">
+        <v>-2.771059701991743</v>
+      </c>
+      <c r="G290">
+        <v>2.126491077858656</v>
+      </c>
+      <c r="H290">
+        <v>0.5283829431021265</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>59332</v>
+      </c>
+      <c r="C291">
+        <v>24528.55987992281</v>
+      </c>
+      <c r="D291">
+        <v>18441.51389805311</v>
+      </c>
+      <c r="E291">
+        <v>2761.413629192142</v>
+      </c>
+      <c r="F291">
+        <v>-1.657579414247544</v>
+      </c>
+      <c r="G291">
+        <v>3.664079373861901</v>
+      </c>
+      <c r="H291">
+        <v>0.7942280236790535</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>59333</v>
+      </c>
+      <c r="C292">
+        <v>27411.91151920456</v>
+      </c>
+      <c r="D292">
+        <v>-4352.873659177759</v>
+      </c>
+      <c r="E292">
+        <v>-1899.482078489151</v>
+      </c>
+      <c r="F292">
+        <v>0.8303384389643874</v>
+      </c>
+      <c r="G292">
+        <v>4.268664279783272</v>
+      </c>
+      <c r="H292">
+        <v>0.8231272946508498</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>59334</v>
+      </c>
+      <c r="C293">
+        <v>16358.02624519781</v>
+      </c>
+      <c r="D293">
+        <v>-24708.60442857656</v>
+      </c>
+      <c r="E293">
+        <v>-5565.767155322997</v>
+      </c>
+      <c r="F293">
+        <v>2.993190155739159</v>
+      </c>
+      <c r="G293">
+        <v>2.864443947632954</v>
+      </c>
+      <c r="H293">
+        <v>0.4622170830217716</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>59335</v>
+      </c>
+      <c r="C294">
+        <v>-1798.562807453781</v>
+      </c>
+      <c r="D294">
+        <v>-35160.31782096895</v>
+      </c>
+      <c r="E294">
+        <v>-6993.071508256989</v>
+      </c>
+      <c r="F294">
+        <v>3.491404597099476</v>
+      </c>
+      <c r="G294">
+        <v>0.9784934096810111</v>
+      </c>
+      <c r="H294">
+        <v>0.06611677690226717</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>59336</v>
+      </c>
+      <c r="C295">
+        <v>-19768.79059399446</v>
+      </c>
+      <c r="D295">
+        <v>-36760.68350441768</v>
+      </c>
+      <c r="E295">
+        <v>-6656.373348271496</v>
+      </c>
+      <c r="F295">
+        <v>3.10571379017064</v>
+      </c>
+      <c r="G295">
+        <v>-0.354444707175172</v>
+      </c>
+      <c r="H295">
+        <v>-0.186923117858708</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>59337</v>
+      </c>
+      <c r="C296">
+        <v>-34750.51722016619</v>
+      </c>
+      <c r="D296">
+        <v>-32637.22956138268</v>
+      </c>
+      <c r="E296">
+        <v>-5281.92760276373</v>
+      </c>
+      <c r="F296">
+        <v>2.464109704888543</v>
+      </c>
+      <c r="G296">
+        <v>-1.177595237577974</v>
+      </c>
+      <c r="H296">
+        <v>-0.3286261385557248</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>59338</v>
+      </c>
+      <c r="C297">
+        <v>-46082.6862169619</v>
+      </c>
+      <c r="D297">
+        <v>-25050.67797335802</v>
+      </c>
+      <c r="E297">
+        <v>-3344.941808396148</v>
+      </c>
+      <c r="F297">
+        <v>1.779200657213591</v>
+      </c>
+      <c r="G297">
+        <v>-1.669544879945354</v>
+      </c>
+      <c r="H297">
+        <v>-0.4025075071159034</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>59339</v>
+      </c>
+      <c r="C298">
+        <v>-53740.56369965005</v>
+      </c>
+      <c r="D298">
+        <v>-15435.63946974882</v>
+      </c>
+      <c r="E298">
+        <v>-1132.448041767772</v>
+      </c>
+      <c r="F298">
+        <v>1.108170885044594</v>
+      </c>
+      <c r="G298">
+        <v>-1.945649276511049</v>
+      </c>
+      <c r="H298">
+        <v>-0.4337192368537165</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>59340</v>
+      </c>
+      <c r="C299">
+        <v>-57842.77728321817</v>
+      </c>
+      <c r="D299">
+        <v>-4751.156944672171</v>
+      </c>
+      <c r="E299">
+        <v>1168.755795909513</v>
+      </c>
+      <c r="F299">
+        <v>0.4612573320115704</v>
+      </c>
+      <c r="G299">
+        <v>-2.068126809662842</v>
+      </c>
+      <c r="H299">
+        <v>-0.435051342251302</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>59341</v>
+      </c>
+      <c r="C300">
+        <v>-58508.69560235942</v>
+      </c>
+      <c r="D300">
+        <v>6284.727473557895</v>
+      </c>
+      <c r="E300">
+        <v>3419.927770817766</v>
+      </c>
+      <c r="F300">
+        <v>-0.1643540932364964</v>
+      </c>
+      <c r="G300">
+        <v>-2.066877114137069</v>
+      </c>
+      <c r="H300">
+        <v>-0.4123297591302202</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>59342.00000000001</v>
+      </c>
+      <c r="C301">
+        <v>-55825.25230769334</v>
+      </c>
+      <c r="D301">
+        <v>17050.40904638714</v>
+      </c>
+      <c r="E301">
+        <v>5500.01057891968</v>
+      </c>
+      <c r="F301">
+        <v>-0.7734261124409895</v>
+      </c>
+      <c r="G301">
+        <v>-1.951012511214395</v>
+      </c>
+      <c r="H301">
+        <v>-0.3671169817837957</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>59343</v>
+      </c>
+      <c r="C302">
+        <v>-49854.04341007196</v>
+      </c>
+      <c r="D302">
+        <v>26919.41053605976</v>
+      </c>
+      <c r="E302">
+        <v>7285.239654383702</v>
+      </c>
+      <c r="F302">
+        <v>-1.367608179838629</v>
+      </c>
+      <c r="G302">
+        <v>-1.713482534137002</v>
+      </c>
+      <c r="H302">
+        <v>-0.2978058049470355</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>59344</v>
+      </c>
+      <c r="C303">
+        <v>-40665.1292324997</v>
+      </c>
+      <c r="D303">
+        <v>35171.75290849095</v>
+      </c>
+      <c r="E303">
+        <v>8632.129521413866</v>
+      </c>
+      <c r="F303">
+        <v>-1.940238954738297</v>
+      </c>
+      <c r="G303">
+        <v>-1.331200805433915</v>
+      </c>
+      <c r="H303">
+        <v>-0.1998105406811425</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>59345</v>
+      </c>
+      <c r="C304">
+        <v>-28411.26171969416</v>
+      </c>
+      <c r="D304">
+        <v>40897.48655390812</v>
+      </c>
+      <c r="E304">
+        <v>9360.206805719954</v>
+      </c>
+      <c r="F304">
+        <v>-2.466225813351131</v>
+      </c>
+      <c r="G304">
+        <v>-0.7620712749740992</v>
+      </c>
+      <c r="H304">
+        <v>-0.06530546891349258</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>59346</v>
+      </c>
+      <c r="C305">
+        <v>-13490.75530231777</v>
+      </c>
+      <c r="D305">
+        <v>42882.72084516896</v>
+      </c>
+      <c r="E305">
+        <v>9234.276104357001</v>
+      </c>
+      <c r="F305">
+        <v>-2.878504499600637</v>
+      </c>
+      <c r="G305">
+        <v>0.05782177618163667</v>
+      </c>
+      <c r="H305">
+        <v>0.1165227654924188</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>59347</v>
+      </c>
+      <c r="C306">
+        <v>3083.937282963095</v>
+      </c>
+      <c r="D306">
+        <v>39516.4635038991</v>
+      </c>
+      <c r="E306">
+        <v>7958.265895390767</v>
+      </c>
+      <c r="F306">
+        <v>-3.014148808342658</v>
+      </c>
+      <c r="G306">
+        <v>1.199652787929626</v>
+      </c>
+      <c r="H306">
+        <v>0.3545815688257367</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>59348</v>
+      </c>
+      <c r="C307">
+        <v>18907.7812601687</v>
+      </c>
+      <c r="D307">
+        <v>28984.73967236131</v>
+      </c>
+      <c r="E307">
+        <v>5242.618744011091</v>
+      </c>
+      <c r="F307">
+        <v>-2.52403281179495</v>
+      </c>
+      <c r="G307">
+        <v>2.634119880299275</v>
+      </c>
+      <c r="H307">
+        <v>0.6305684555425245</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>59349</v>
+      </c>
+      <c r="C308">
+        <v>29189.16562294746</v>
+      </c>
+      <c r="D308">
+        <v>10723.98309920488</v>
+      </c>
+      <c r="E308">
+        <v>1138.02495116207</v>
+      </c>
+      <c r="F308">
+        <v>-0.9561158288681161</v>
+      </c>
+      <c r="G308">
+        <v>3.866943147931132</v>
+      </c>
+      <c r="H308">
+        <v>0.8271285159648926</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>59350</v>
+      </c>
+      <c r="C309">
+        <v>28342.75473828171</v>
+      </c>
+      <c r="D309">
+        <v>-11184.68747383362</v>
+      </c>
+      <c r="E309">
+        <v>-3323.355636061825</v>
+      </c>
+      <c r="F309">
+        <v>1.328421714540261</v>
+      </c>
+      <c r="G309">
+        <v>3.825938772880032</v>
+      </c>
+      <c r="H309">
+        <v>0.7371280891622919</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>59351</v>
+      </c>
+      <c r="C310">
+        <v>16477.79404048972</v>
+      </c>
+      <c r="D310">
+        <v>-28770.12074963673</v>
+      </c>
+      <c r="E310">
+        <v>-6510.702850754173</v>
+      </c>
+      <c r="F310">
+        <v>2.878303151066758</v>
+      </c>
+      <c r="G310">
+        <v>2.467414828546413</v>
+      </c>
+      <c r="H310">
+        <v>0.4029963535197075</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>59352</v>
+      </c>
+      <c r="C311">
+        <v>-436.9571187241926</v>
+      </c>
+      <c r="D311">
+        <v>-37953.2228911483</v>
+      </c>
+      <c r="E311">
+        <v>-7796.842071537192</v>
+      </c>
+      <c r="F311">
+        <v>3.268004560254349</v>
+      </c>
+      <c r="G311">
+        <v>0.9129688632129633</v>
+      </c>
+      <c r="H311">
+        <v>0.06981280854890659</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>59353</v>
+      </c>
+      <c r="C312">
+        <v>-17379.0050909568</v>
+      </c>
+      <c r="D312">
+        <v>-39604.90984664114</v>
+      </c>
+      <c r="E312">
+        <v>-7536.092250394233</v>
+      </c>
+      <c r="F312">
+        <v>2.99893527936309</v>
+      </c>
+      <c r="G312">
+        <v>-0.2886888582315675</v>
+      </c>
+      <c r="H312">
+        <v>-0.1676759742349928</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>59354</v>
+      </c>
+      <c r="C313">
+        <v>-31991.02044860229</v>
+      </c>
+      <c r="D313">
+        <v>-35826.55541009241</v>
+      </c>
+      <c r="E313">
+        <v>-6241.528201788452</v>
+      </c>
+      <c r="F313">
+        <v>2.45999052646586</v>
+      </c>
+      <c r="G313">
+        <v>-1.119274997635231</v>
+      </c>
+      <c r="H313">
+        <v>-0.3195017138812686</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>59355</v>
+      </c>
+      <c r="C314">
+        <v>-43378.83791718964</v>
+      </c>
+      <c r="D314">
+        <v>-28382.48808526196</v>
+      </c>
+      <c r="E314">
+        <v>-4305.863750649357</v>
+      </c>
+      <c r="F314">
+        <v>1.82304175481852</v>
+      </c>
+      <c r="G314">
+        <v>-1.667689118103143</v>
+      </c>
+      <c r="H314">
+        <v>-0.409986612116473</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>59356</v>
+      </c>
+      <c r="C315">
+        <v>-51234.62655022949</v>
+      </c>
+      <c r="D315">
+        <v>-18566.40992939728</v>
+      </c>
+      <c r="E315">
+        <v>-2004.553052920281</v>
+      </c>
+      <c r="F315">
+        <v>1.153717621301355</v>
+      </c>
+      <c r="G315">
+        <v>-2.00654674622601</v>
+      </c>
+      <c r="H315">
+        <v>-0.4563420881857092</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>59357</v>
+      </c>
+      <c r="C316">
+        <v>-55458.14220863431</v>
+      </c>
+      <c r="D316">
+        <v>-7354.541082772618</v>
+      </c>
+      <c r="E316">
+        <v>459.6352757118414</v>
+      </c>
+      <c r="F316">
+        <v>0.4751209485160588</v>
+      </c>
+      <c r="G316">
+        <v>-2.179345837953769</v>
+      </c>
+      <c r="H316">
+        <v>-0.4682705652420511</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>59358</v>
+      </c>
+      <c r="C317">
+        <v>-56011.66533177366</v>
+      </c>
+      <c r="D317">
+        <v>4442.613577499319</v>
+      </c>
+      <c r="E317">
+        <v>2920.035331163284</v>
+      </c>
+      <c r="F317">
+        <v>-0.2050990811137361</v>
+      </c>
+      <c r="G317">
+        <v>-2.206095453769864</v>
+      </c>
+      <c r="H317">
+        <v>-0.4500621340655458</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>59359</v>
+      </c>
+      <c r="C318">
+        <v>-52876.33266971462</v>
+      </c>
+      <c r="D318">
+        <v>16060.56671111203</v>
+      </c>
+      <c r="E318">
+        <v>5219.219398634145</v>
+      </c>
+      <c r="F318">
+        <v>-0.8823612247231194</v>
+      </c>
+      <c r="G318">
+        <v>-2.088333909521949</v>
+      </c>
+      <c r="H318">
+        <v>-0.4020540335390047</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>59360</v>
+      </c>
+      <c r="C319">
+        <v>-46064.07890066934</v>
+      </c>
+      <c r="D319">
+        <v>26681.86522032429</v>
+      </c>
+      <c r="E319">
+        <v>7188.159037562796</v>
+      </c>
+      <c r="F319">
+        <v>-1.54706576798117</v>
+      </c>
+      <c r="G319">
+        <v>-1.811260861766216</v>
+      </c>
+      <c r="H319">
+        <v>-0.3213404371916975</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>59361</v>
+      </c>
+      <c r="C320">
+        <v>-35676.44635316576</v>
+      </c>
+      <c r="D320">
+        <v>35346.36770314594</v>
+      </c>
+      <c r="E320">
+        <v>8629.192809100279</v>
+      </c>
+      <c r="F320">
+        <v>-2.1752751596351</v>
+      </c>
+      <c r="G320">
+        <v>-1.343911915756657</v>
+      </c>
+      <c r="H320">
+        <v>-0.2021389835974262</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>59362.00000000001</v>
+      </c>
+      <c r="C321">
+        <v>-22028.64704959339</v>
+      </c>
+      <c r="D321">
+        <v>40867.49628633446</v>
+      </c>
+      <c r="E321">
+        <v>9303.284618257498</v>
+      </c>
+      <c r="F321">
+        <v>-2.712536687826372</v>
+      </c>
+      <c r="G321">
+        <v>-0.64019508375756</v>
+      </c>
+      <c r="H321">
+        <v>-0.03660426724898848</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>59363</v>
+      </c>
+      <c r="C322">
+        <v>-5896.96659418813</v>
+      </c>
+      <c r="D322">
+        <v>41778.86239376148</v>
+      </c>
+      <c r="E322">
+        <v>8928.512399657999</v>
+      </c>
+      <c r="F322">
+        <v>-3.043192295199055</v>
+      </c>
+      <c r="G322">
+        <v>0.3492899787953171</v>
+      </c>
+      <c r="H322">
+        <v>0.1816027778431912</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>59364</v>
+      </c>
+      <c r="C323">
+        <v>11017.99971169967</v>
+      </c>
+      <c r="D323">
+        <v>36445.21213360317</v>
+      </c>
+      <c r="E323">
+        <v>7220.256096611602</v>
+      </c>
+      <c r="F323">
+        <v>-2.945189267393831</v>
+      </c>
+      <c r="G323">
+        <v>1.621975125157955</v>
+      </c>
+      <c r="H323">
+        <v>0.4441676672720883</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>59365</v>
+      </c>
+      <c r="C324">
+        <v>25472.59898196085</v>
+      </c>
+      <c r="D324">
+        <v>23753.04536819464</v>
+      </c>
+      <c r="E324">
+        <v>4057.533803774942</v>
+      </c>
+      <c r="F324">
+        <v>-2.101197734013748</v>
+      </c>
+      <c r="G324">
+        <v>2.961395212050535</v>
+      </c>
+      <c r="H324">
+        <v>0.6946267524367408</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>59366</v>
+      </c>
+      <c r="C325">
+        <v>32856.68329520526</v>
+      </c>
+      <c r="D325">
+        <v>4887.865943814963</v>
+      </c>
+      <c r="E325">
+        <v>-151.2405771285824</v>
+      </c>
+      <c r="F325">
+        <v>-0.4152576355296836</v>
+      </c>
+      <c r="G325">
+        <v>3.757504615266691</v>
+      </c>
+      <c r="H325">
+        <v>0.8018448532606938</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>59367.00000000001</v>
+      </c>
+      <c r="C326">
+        <v>30023.28665728938</v>
+      </c>
+      <c r="D326">
+        <v>-15294.00005241323</v>
+      </c>
+      <c r="E326">
+        <v>-4279.873918595769</v>
+      </c>
+      <c r="F326">
+        <v>1.471465354650816</v>
+      </c>
+      <c r="G326">
+        <v>3.435110798273624</v>
+      </c>
+      <c r="H326">
+        <v>0.6678027908171552</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>59368</v>
+      </c>
+      <c r="C327">
+        <v>18516.76438219198</v>
+      </c>
+      <c r="D327">
+        <v>-31045.08223186564</v>
+      </c>
+      <c r="E327">
+        <v>-7178.889624018254</v>
+      </c>
+      <c r="F327">
+        <v>2.697901977653264</v>
+      </c>
+      <c r="G327">
+        <v>2.269732329829172</v>
+      </c>
+      <c r="H327">
+        <v>0.3803214107565868</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>59369</v>
+      </c>
+      <c r="C328">
+        <v>2747.018378130003</v>
+      </c>
+      <c r="D328">
+        <v>-39749.18609841425</v>
+      </c>
+      <c r="E328">
+        <v>-8453.670104854305</v>
+      </c>
+      <c r="F328">
+        <v>3.103129407135566</v>
+      </c>
+      <c r="G328">
+        <v>0.9389177744293112</v>
+      </c>
+      <c r="H328">
+        <v>0.08687640447552848</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>59370</v>
+      </c>
+      <c r="C329">
+        <v>-13532.19390251645</v>
+      </c>
+      <c r="D329">
+        <v>-41721.56900629769</v>
+      </c>
+      <c r="E329">
+        <v>-8299.711002654045</v>
+      </c>
+      <c r="F329">
+        <v>2.957282981758886</v>
+      </c>
+      <c r="G329">
+        <v>-0.1978662481440084</v>
+      </c>
+      <c r="H329">
+        <v>-0.1467398304344055</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>59371</v>
+      </c>
+      <c r="C330">
+        <v>-28113.22996411435</v>
+      </c>
+      <c r="D330">
+        <v>-38305.92149716521</v>
+      </c>
+      <c r="E330">
+        <v>-7073.54838701873</v>
+      </c>
+      <c r="F330">
+        <v>2.511287730875797</v>
+      </c>
+      <c r="G330">
+        <v>-1.066652326565955</v>
+      </c>
+      <c r="H330">
+        <v>-0.3138070749124856</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>59372</v>
+      </c>
+      <c r="C331">
+        <v>-39839.69778897316</v>
+      </c>
+      <c r="D331">
+        <v>-30889.80978266572</v>
+      </c>
+      <c r="E331">
+        <v>-5104.375507371871</v>
+      </c>
+      <c r="F331">
+        <v>1.909052876685793</v>
+      </c>
+      <c r="G331">
+        <v>-1.68994829168543</v>
+      </c>
+      <c r="H331">
+        <v>-0.4240247769667485</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>59373</v>
+      </c>
+      <c r="C332">
+        <v>-48099.82065971437</v>
+      </c>
+      <c r="D332">
+        <v>-20674.47874868547</v>
+      </c>
+      <c r="E332">
+        <v>-2663.924209510124</v>
+      </c>
+      <c r="F332">
+        <v>1.223259149116669</v>
+      </c>
+      <c r="G332">
+        <v>-2.102075737665398</v>
+      </c>
+      <c r="H332">
+        <v>-0.487043756455409</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>59374</v>
+      </c>
+      <c r="C333">
+        <v>-52545.11573349651</v>
+      </c>
+      <c r="D333">
+        <v>-8703.513674575737</v>
+      </c>
+      <c r="E333">
+        <v>17.39384859398708</v>
+      </c>
+      <c r="F333">
+        <v>0.4908648751604942</v>
+      </c>
+      <c r="G333">
+        <v>-2.326027654561729</v>
+      </c>
+      <c r="H333">
+        <v>-0.5088671242754198</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>59375</v>
+      </c>
+      <c r="C334">
+        <v>-52964.8935090989</v>
+      </c>
+      <c r="D334">
+        <v>4052.318639784706</v>
+      </c>
+      <c r="E334">
+        <v>2728.08991509344</v>
+      </c>
+      <c r="F334">
+        <v>-0.2658525811758535</v>
+      </c>
+      <c r="G334">
+        <v>-2.369594304670743</v>
+      </c>
+      <c r="H334">
+        <v>-0.4917779718037234</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>59376</v>
+      </c>
+      <c r="C335">
+        <v>-49251.22068338389</v>
+      </c>
+      <c r="D335">
+        <v>16608.10848934284</v>
+      </c>
+      <c r="E335">
+        <v>5256.005749927054</v>
+      </c>
+      <c r="F335">
+        <v>-1.026404543843072</v>
+      </c>
+      <c r="G335">
+        <v>-2.225812173400267</v>
+      </c>
+      <c r="H335">
+        <v>-0.4348868120065779</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>59377</v>
+      </c>
+      <c r="C336">
+        <v>-41426.59784103308</v>
+      </c>
+      <c r="D336">
+        <v>27885.97740109303</v>
+      </c>
+      <c r="E336">
+        <v>7372.732759618378</v>
+      </c>
+      <c r="F336">
+        <v>-1.761310378417799</v>
+      </c>
+      <c r="G336">
+        <v>-1.874268689860927</v>
+      </c>
+      <c r="H336">
+        <v>-0.334784888932433</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>59378</v>
+      </c>
+      <c r="C337">
+        <v>-29735.32650634881</v>
+      </c>
+      <c r="D337">
+        <v>36650.53818375811</v>
+      </c>
+      <c r="E337">
+        <v>8823.374209883448</v>
+      </c>
+      <c r="F337">
+        <v>-2.418971287332404</v>
+      </c>
+      <c r="G337">
+        <v>-1.284537223217747</v>
+      </c>
+      <c r="H337">
+        <v>-0.1867307356053733</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>59379</v>
+      </c>
+      <c r="C338">
+        <v>-14820.28501839665</v>
+      </c>
+      <c r="D338">
+        <v>41484.63022240123</v>
+      </c>
+      <c r="E338">
+        <v>9327.883151598795</v>
+      </c>
+      <c r="F338">
+        <v>-2.907288796011549</v>
+      </c>
+      <c r="G338">
+        <v>-0.4277412188185616</v>
+      </c>
+      <c r="H338">
+        <v>0.01225085395187843</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>59380</v>
+      </c>
+      <c r="C339">
+        <v>1991.990869367344</v>
+      </c>
+      <c r="D339">
+        <v>40885.97529896584</v>
+      </c>
+      <c r="E339">
+        <v>8611.884307615795</v>
+      </c>
+      <c r="F339">
+        <v>-3.073698305874262</v>
+      </c>
+      <c r="G339">
+        <v>0.6898040250885427</v>
+      </c>
+      <c r="H339">
+        <v>0.2555114665415733</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>59381</v>
+      </c>
+      <c r="C340">
+        <v>18356.62914126153</v>
+      </c>
+      <c r="D340">
+        <v>33661.5030562076</v>
+      </c>
+      <c r="E340">
+        <v>6502.49853385571</v>
+      </c>
+      <c r="F340">
+        <v>-2.712745016978569</v>
+      </c>
+      <c r="G340">
+        <v>1.952208486454006</v>
+      </c>
+      <c r="H340">
+        <v>0.5112145668714064</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>59382</v>
+      </c>
+      <c r="C341">
+        <v>30882.5849720125</v>
+      </c>
+      <c r="D341">
+        <v>19809.70067461435</v>
+      </c>
+      <c r="E341">
+        <v>3117.093745772351</v>
+      </c>
+      <c r="F341">
+        <v>-1.678648283420358</v>
+      </c>
+      <c r="G341">
+        <v>3.044168144598442</v>
+      </c>
+      <c r="H341">
+        <v>0.7071656873562487</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>59383</v>
+      </c>
+      <c r="C342">
+        <v>36141.2926943577</v>
+      </c>
+      <c r="D342">
+        <v>1546.163046628827</v>
+      </c>
+      <c r="E342">
+        <v>-953.9226146390771</v>
+      </c>
+      <c r="F342">
+        <v>-0.1268803466161603</v>
+      </c>
+      <c r="G342">
+        <v>3.519185163005603</v>
+      </c>
+      <c r="H342">
+        <v>0.753780324902133</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>59384</v>
+      </c>
+      <c r="C343">
+        <v>32684.18209282283</v>
+      </c>
+      <c r="D343">
+        <v>-16940.73732895903</v>
+      </c>
+      <c r="E343">
+        <v>-4769.54662360584</v>
+      </c>
+      <c r="F343">
+        <v>1.428078931288728</v>
+      </c>
+      <c r="G343">
+        <v>3.160818318823675</v>
+      </c>
+      <c r="H343">
+        <v>0.6229441090811398</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>59385</v>
+      </c>
+      <c r="C344">
+        <v>21999.41241602474</v>
+      </c>
+      <c r="D344">
+        <v>-31601.48594480296</v>
+      </c>
+      <c r="E344">
+        <v>-7520.270375993064</v>
+      </c>
+      <c r="F344">
+        <v>2.508337643163442</v>
+      </c>
+      <c r="G344">
+        <v>2.197608559485612</v>
+      </c>
+      <c r="H344">
+        <v>0.3799006119374553</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>59386</v>
+      </c>
+      <c r="C345">
+        <v>7189.557016047291</v>
+      </c>
+      <c r="D345">
+        <v>-40307.62650235117</v>
+      </c>
+      <c r="E345">
+        <v>-8860.374938133278</v>
+      </c>
+      <c r="F345">
+        <v>2.985840991023178</v>
+      </c>
+      <c r="G345">
+        <v>1.024505343340891</v>
+      </c>
+      <c r="H345">
+        <v>0.1130808221792841</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>59387</v>
+      </c>
+      <c r="C346">
+        <v>-8756.594318100777</v>
+      </c>
+      <c r="D346">
+        <v>-42784.84044271668</v>
+      </c>
+      <c r="E346">
+        <v>-8833.446966358237</v>
+      </c>
+      <c r="F346">
+        <v>2.969422688322165</v>
+      </c>
+      <c r="G346">
+        <v>-0.08759050797780085</v>
+      </c>
+      <c r="H346">
+        <v>-0.1236793825192488</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>59388</v>
+      </c>
+      <c r="C347">
+        <v>-23638.10874042106</v>
+      </c>
+      <c r="D347">
+        <v>-39743.53662730166</v>
+      </c>
+      <c r="E347">
+        <v>-7664.909781566659</v>
+      </c>
+      <c r="F347">
+        <v>2.61114904563752</v>
+      </c>
+      <c r="G347">
+        <v>-1.020332312530573</v>
+      </c>
+      <c r="H347">
+        <v>-0.3104251498531317</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>59389</v>
+      </c>
+      <c r="C348">
+        <v>-35980.74447433199</v>
+      </c>
+      <c r="D348">
+        <v>-32247.81658026826</v>
+      </c>
+      <c r="E348">
+        <v>-5631.077547455248</v>
+      </c>
+      <c r="F348">
+        <v>2.029294040145818</v>
+      </c>
+      <c r="G348">
+        <v>-1.737644322122446</v>
+      </c>
+      <c r="H348">
+        <v>-0.4434834880310013</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>59390</v>
+      </c>
+      <c r="C349">
+        <v>-44812.40036194547</v>
+      </c>
+      <c r="D349">
+        <v>-21450.15742656374</v>
+      </c>
+      <c r="E349">
+        <v>-3011.135161209615</v>
+      </c>
+      <c r="F349">
+        <v>1.303822522923459</v>
+      </c>
+      <c r="G349">
+        <v>-2.232714625097631</v>
+      </c>
+      <c r="H349">
+        <v>-0.5240669934847927</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>59391</v>
+      </c>
+      <c r="C350">
+        <v>-49495.64481746114</v>
+      </c>
+      <c r="D350">
+        <v>-8527.668055434387</v>
+      </c>
+      <c r="E350">
+        <v>-79.35057000389675</v>
+      </c>
+      <c r="F350">
+        <v>0.4902932220898569</v>
+      </c>
+      <c r="G350">
+        <v>-2.503163675416208</v>
+      </c>
+      <c r="H350">
+        <v>-0.5534948810854847</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>59392</v>
+      </c>
+      <c r="C351">
+        <v>-49645.35530846795</v>
+      </c>
+      <c r="D351">
+        <v>5302.412187695075</v>
+      </c>
+      <c r="E351">
+        <v>2889.347662313838</v>
+      </c>
+      <c r="F351">
+        <v>-0.3658804552588777</v>
+      </c>
+      <c r="G351">
+        <v>-2.541879036934693</v>
+      </c>
+      <c r="H351">
+        <v>-0.5317590482471403</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>59393</v>
+      </c>
+      <c r="C352">
+        <v>-45118.96832997438</v>
+      </c>
+      <c r="D352">
+        <v>18746.22462113059</v>
+      </c>
+      <c r="E352">
+        <v>5612.00988824909</v>
+      </c>
+      <c r="F352">
+        <v>-1.217054508689938</v>
+      </c>
+      <c r="G352">
+        <v>-2.335433114904896</v>
+      </c>
+      <c r="H352">
+        <v>-0.4576197925096714</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>59394</v>
+      </c>
+      <c r="C353">
+        <v>-36071.28578694913</v>
+      </c>
+      <c r="D353">
+        <v>30406.73480502397</v>
+      </c>
+      <c r="E353">
+        <v>7794.306272061617</v>
+      </c>
+      <c r="F353">
+        <v>-2.001789480928133</v>
+      </c>
+      <c r="G353">
+        <v>-1.86781690866567</v>
+      </c>
+      <c r="H353">
+        <v>-0.3297852863727711</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>59395</v>
+      </c>
+      <c r="C354">
+        <v>-23070.92093362102</v>
+      </c>
+      <c r="D354">
+        <v>38799.813500109</v>
+      </c>
+      <c r="E354">
+        <v>9137.912422831894</v>
+      </c>
+      <c r="F354">
+        <v>-2.634070553262984</v>
+      </c>
+      <c r="G354">
+        <v>-1.131230516548416</v>
+      </c>
+      <c r="H354">
+        <v>-0.1495745888387693</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>59396</v>
+      </c>
+      <c r="C355">
+        <v>-7263.134040380014</v>
+      </c>
+      <c r="D355">
+        <v>42464.25354593068</v>
+      </c>
+      <c r="E355">
+        <v>9369.36847817854</v>
+      </c>
+      <c r="F355">
+        <v>-2.997570560001241</v>
+      </c>
+      <c r="G355">
+        <v>-0.1478714944475427</v>
+      </c>
+      <c r="H355">
+        <v>0.07421785771413368</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>59397</v>
+      </c>
+      <c r="C356">
+        <v>9484.847109607017</v>
+      </c>
+      <c r="D356">
+        <v>40233.11332503927</v>
+      </c>
+      <c r="E356">
+        <v>8303.017296226888</v>
+      </c>
+      <c r="F356">
+        <v>-2.957467408904571</v>
+      </c>
+      <c r="G356">
+        <v>0.9960545810875656</v>
+      </c>
+      <c r="H356">
+        <v>0.3184213131596531</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>59398</v>
+      </c>
+      <c r="C357">
+        <v>24613.47417999336</v>
+      </c>
+      <c r="D357">
+        <v>31697.0027577682</v>
+      </c>
+      <c r="E357">
+        <v>5939.391527398954</v>
+      </c>
+      <c r="F357">
+        <v>-2.409255285004407</v>
+      </c>
+      <c r="G357">
+        <v>2.118690526784003</v>
+      </c>
+      <c r="H357">
+        <v>0.5403635527844085</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>59399</v>
+      </c>
+      <c r="C358">
+        <v>35299.48713100141</v>
+      </c>
+      <c r="D358">
+        <v>17719.38167509941</v>
+      </c>
+      <c r="E358">
+        <v>2561.311295939138</v>
+      </c>
+      <c r="F358">
+        <v>-1.366040183098464</v>
+      </c>
+      <c r="G358">
+        <v>2.957277263720481</v>
+      </c>
+      <c r="H358">
+        <v>0.6840461335390757</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>59400</v>
+      </c>
+      <c r="C359">
+        <v>39331.51588392041</v>
+      </c>
+      <c r="D359">
+        <v>600.3530912635297</v>
+      </c>
+      <c r="E359">
+        <v>-1260.789172288036</v>
+      </c>
+      <c r="F359">
+        <v>-0.02198234728365926</v>
+      </c>
+      <c r="G359">
+        <v>3.27121093596987</v>
+      </c>
+      <c r="H359">
+        <v>0.7044839499279791</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>59401</v>
+      </c>
+      <c r="C360">
+        <v>35987.66278528629</v>
+      </c>
+      <c r="D360">
+        <v>-16484.37107119594</v>
+      </c>
+      <c r="E360">
+        <v>-4819.383648905761</v>
+      </c>
+      <c r="F360">
+        <v>1.30469774812613</v>
+      </c>
+      <c r="G360">
+        <v>2.979977137308105</v>
+      </c>
+      <c r="H360">
+        <v>0.5953864758289135</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>59402</v>
+      </c>
+      <c r="C361">
+        <v>26241.47831407302</v>
+      </c>
+      <c r="D361">
+        <v>-30534.39392186058</v>
+      </c>
+      <c r="E361">
+        <v>-7502.69025711182</v>
+      </c>
+      <c r="F361">
+        <v>2.328502017156965</v>
+      </c>
+      <c r="G361">
+        <v>2.199480236485867</v>
+      </c>
+      <c r="H361">
+        <v>0.3915583220297052</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>59403</v>
+      </c>
+      <c r="C362">
+        <v>12197.8443442919</v>
+      </c>
+      <c r="D362">
+        <v>-39536.47712060656</v>
+      </c>
+      <c r="E362">
+        <v>-8949.878948096017</v>
+      </c>
+      <c r="F362">
+        <v>2.905391046390753</v>
+      </c>
+      <c r="G362">
+        <v>1.148142083648772</v>
+      </c>
+      <c r="H362">
+        <v>0.1449715334746872</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>59404</v>
+      </c>
+      <c r="C363">
+        <v>-3690.910093028653</v>
+      </c>
+      <c r="D363">
+        <v>-42652.74313834472</v>
+      </c>
+      <c r="E363">
+        <v>-9064.916392231769</v>
+      </c>
+      <c r="F363">
+        <v>3.025588877747859</v>
+      </c>
+      <c r="G363">
+        <v>0.03580126975916084</v>
+      </c>
+      <c r="H363">
+        <v>-0.0988632314610744</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>59405</v>
+      </c>
+      <c r="C364">
+        <v>-19157.03056753785</v>
+      </c>
+      <c r="D364">
+        <v>-39991.26926822143</v>
+      </c>
+      <c r="E364">
+        <v>-7949.353273598071</v>
+      </c>
+      <c r="F364">
+        <v>2.752476217018608</v>
+      </c>
+      <c r="G364">
+        <v>-0.9852041578652698</v>
+      </c>
+      <c r="H364">
+        <v>-0.3093131825613617</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>59406</v>
+      </c>
+      <c r="C365">
+        <v>-32336.36625203424</v>
+      </c>
+      <c r="D365">
+        <v>-32295.00807194373</v>
+      </c>
+      <c r="E365">
+        <v>-5828.109528702427</v>
+      </c>
+      <c r="F365">
+        <v>2.17315243846066</v>
+      </c>
+      <c r="G365">
+        <v>-1.818020624167681</v>
+      </c>
+      <c r="H365">
+        <v>-0.4685049884611673</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>59407</v>
+      </c>
+      <c r="C366">
+        <v>-41812.45038827666</v>
+      </c>
+      <c r="D366">
+        <v>-20711.0648279506</v>
+      </c>
+      <c r="E366">
+        <v>-2998.194631596525</v>
+      </c>
+      <c r="F366">
+        <v>1.376159326051175</v>
+      </c>
+      <c r="G366">
+        <v>-2.403233811880886</v>
+      </c>
+      <c r="H366">
+        <v>-0.5666971303821037</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>59408</v>
+      </c>
+      <c r="C367">
+        <v>-46611.00661419646</v>
+      </c>
+      <c r="D367">
+        <v>-6653.63541780745</v>
+      </c>
+      <c r="E367">
+        <v>201.0340895865901</v>
+      </c>
+      <c r="F367">
+        <v>0.4473228046147322</v>
+      </c>
+      <c r="G367">
+        <v>-2.70378236567036</v>
+      </c>
+      <c r="H367">
+        <v>-0.5989002485235305</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>59408.25</v>
+      </c>
+      <c r="C368">
+        <v>-2464.735237982512</v>
+      </c>
+      <c r="D368">
+        <v>-42438.41623879049</v>
+      </c>
+      <c r="E368">
+        <v>-9070.476938939626</v>
+      </c>
+      <c r="F368">
+        <v>3.045509890205005</v>
+      </c>
+      <c r="G368">
+        <v>0.06753286604750763</v>
+      </c>
+      <c r="H368">
+        <v>-0.09257950482459316</v>
       </c>
     </row>
   </sheetData>
